--- a/Primer trabajo-20250121/DBmf_sa.xlsx
+++ b/Primer trabajo-20250121/DBmf_sa.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcrpgob-my.sharepoint.com/personal/alan_ledesma_bcrp_gob_pe/Documents/CursoVerano/MetodosNumericos/2025/Evaluation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curso\Downloads\Primer trabajo-20250121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="280" documentId="14_{FD456080-6F78-478D-B97C-6E87F5FAA122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77F38082-2DC0-4F85-A9F4-49A921236786}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Trimestral" sheetId="5" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <definedName name="_DLX1.INC">#REF!</definedName>
     <definedName name="_DLX2.INC">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -148,11 +147,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="General_)"/>
-    <numFmt numFmtId="167" formatCode="_ [$€]* #,##0.00_ ;_ [$€]* \-#,##0.00_ ;_ [$€]* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="General_)"/>
+    <numFmt numFmtId="166" formatCode="_ [$€]* #,##0.00_ ;_ [$€]* \-#,##0.00_ ;_ [$€]* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -272,16 +271,16 @@
   <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="0"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -329,33 +328,33 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="27">
-    <cellStyle name="Cancel" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Cancel 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="CUADRO - Style1" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="CUERPO - Style2" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Diseño" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Diseño 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Diseño_1.d" xfId="16" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Euro" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Millares 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Cancel" xfId="4"/>
+    <cellStyle name="Cancel 2" xfId="20"/>
+    <cellStyle name="CUADRO - Style1" xfId="5"/>
+    <cellStyle name="CUERPO - Style2" xfId="6"/>
+    <cellStyle name="Diseño" xfId="1"/>
+    <cellStyle name="Diseño 3" xfId="17"/>
+    <cellStyle name="Diseño_1.d" xfId="16"/>
+    <cellStyle name="Euro" xfId="7"/>
+    <cellStyle name="Millares 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="26" xr:uid="{1C6976F9-0539-4AE5-ABE2-9C28EE4BC184}"/>
-    <cellStyle name="Normal 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Normal 2 10" xfId="21" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Normal 2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Normal 3 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Normal 3 3" xfId="23" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Normal 4" xfId="12" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Normal 5" xfId="14" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Normal 6" xfId="15" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Normal 7" xfId="18" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Normal 8" xfId="19" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Normal 8 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Normal 9" xfId="25" xr:uid="{A43FFC64-7D71-49B3-AD8F-6B2C1FD65585}"/>
-    <cellStyle name="NOTAS - Style3" xfId="9" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="RECUAD - Style4" xfId="10" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="TITULO - Style5" xfId="11" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Normal 10" xfId="26"/>
+    <cellStyle name="Normal 2" xfId="8"/>
+    <cellStyle name="Normal 2 10" xfId="21"/>
+    <cellStyle name="Normal 2 2" xfId="22"/>
+    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 3 2" xfId="13"/>
+    <cellStyle name="Normal 3 3" xfId="23"/>
+    <cellStyle name="Normal 4" xfId="12"/>
+    <cellStyle name="Normal 5" xfId="14"/>
+    <cellStyle name="Normal 6" xfId="15"/>
+    <cellStyle name="Normal 7" xfId="18"/>
+    <cellStyle name="Normal 8" xfId="19"/>
+    <cellStyle name="Normal 8 2" xfId="24"/>
+    <cellStyle name="Normal 9" xfId="25"/>
+    <cellStyle name="NOTAS - Style3" xfId="9"/>
+    <cellStyle name="RECUAD - Style4" xfId="10"/>
+    <cellStyle name="TITULO - Style5" xfId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -632,18 +631,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACC77AD-4BCD-4D66-8AA1-35FB65E05934}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView topLeftCell="A78" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="5" width="26.88671875" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="5" width="26.85546875" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -660,7 +659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.6">
+    <row r="2" spans="1:5" ht="45">
       <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
@@ -674,7 +673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4">
+    <row r="3" spans="1:5">
       <c r="A3" s="12">
         <v>37681</v>
       </c>
@@ -691,7 +690,7 @@
         <v>9195.3536737333379</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.4">
+    <row r="4" spans="1:5">
       <c r="A4" s="12">
         <v>37773</v>
       </c>
@@ -708,7 +707,7 @@
         <v>9352.6789503679192</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.4">
+    <row r="5" spans="1:5">
       <c r="A5" s="12">
         <v>37865</v>
       </c>
@@ -725,7 +724,7 @@
         <v>9461.9881139273457</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.4">
+    <row r="6" spans="1:5">
       <c r="A6" s="12">
         <v>37956</v>
       </c>
@@ -742,7 +741,7 @@
         <v>9276.3923981690623</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.4">
+    <row r="7" spans="1:5">
       <c r="A7" s="12">
         <v>38047</v>
       </c>
@@ -759,7 +758,7 @@
         <v>9741.5371260383436</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.4">
+    <row r="8" spans="1:5">
       <c r="A8" s="12">
         <v>38139</v>
       </c>
@@ -776,7 +775,7 @@
         <v>9744.6061935858124</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4">
+    <row r="9" spans="1:5">
       <c r="A9" s="12">
         <v>38231</v>
       </c>
@@ -793,7 +792,7 @@
         <v>9927.3196884013305</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4">
+    <row r="10" spans="1:5">
       <c r="A10" s="12">
         <v>38322</v>
       </c>
@@ -810,7 +809,7 @@
         <v>10136.259261913807</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4">
+    <row r="11" spans="1:5">
       <c r="A11" s="12">
         <v>38412</v>
       </c>
@@ -827,7 +826,7 @@
         <v>10156.90958340293</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4">
+    <row r="12" spans="1:5">
       <c r="A12" s="12">
         <v>38504</v>
       </c>
@@ -844,7 +843,7 @@
         <v>10723.713679930173</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.4">
+    <row r="13" spans="1:5">
       <c r="A13" s="12">
         <v>38596</v>
       </c>
@@ -861,7 +860,7 @@
         <v>11202.775062164836</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.4">
+    <row r="14" spans="1:5">
       <c r="A14" s="12">
         <v>38687</v>
       </c>
@@ -878,7 +877,7 @@
         <v>11954.049855645244</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.4">
+    <row r="15" spans="1:5">
       <c r="A15" s="12">
         <v>38777</v>
       </c>
@@ -895,7 +894,7 @@
         <v>12754.206273701519</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.4">
+    <row r="16" spans="1:5">
       <c r="A16" s="12">
         <v>38869</v>
       </c>
@@ -912,7 +911,7 @@
         <v>12777.737783278788</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.4">
+    <row r="17" spans="1:5">
       <c r="A17" s="12">
         <v>38961</v>
       </c>
@@ -929,7 +928,7 @@
         <v>13132.415258508181</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.4">
+    <row r="18" spans="1:5">
       <c r="A18" s="12">
         <v>39052</v>
       </c>
@@ -946,7 +945,7 @@
         <v>14014.162438189684</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.4">
+    <row r="19" spans="1:5">
       <c r="A19" s="12">
         <v>39142</v>
       </c>
@@ -963,7 +962,7 @@
         <v>14567.597616893559</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.4">
+    <row r="20" spans="1:5">
       <c r="A20" s="12">
         <v>39234</v>
       </c>
@@ -980,7 +979,7 @@
         <v>15363.632966631667</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.4">
+    <row r="21" spans="1:5">
       <c r="A21" s="12">
         <v>39326</v>
       </c>
@@ -997,7 +996,7 @@
         <v>16606.100386529688</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.4">
+    <row r="22" spans="1:5">
       <c r="A22" s="12">
         <v>39417</v>
       </c>
@@ -1014,7 +1013,7 @@
         <v>17579.160201674706</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.4">
+    <row r="23" spans="1:5">
       <c r="A23" s="12">
         <v>39508</v>
       </c>
@@ -1031,7 +1030,7 @@
         <v>18844.123620438688</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.4">
+    <row r="24" spans="1:5">
       <c r="A24" s="12">
         <v>39600</v>
       </c>
@@ -1048,7 +1047,7 @@
         <v>20413.789349767085</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.4">
+    <row r="25" spans="1:5">
       <c r="A25" s="12">
         <v>39692</v>
       </c>
@@ -1065,7 +1064,7 @@
         <v>21057.885983521701</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.4">
+    <row r="26" spans="1:5">
       <c r="A26" s="12">
         <v>39783</v>
       </c>
@@ -1082,7 +1081,7 @@
         <v>19754.099136328456</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.4">
+    <row r="27" spans="1:5">
       <c r="A27" s="12">
         <v>39873</v>
       </c>
@@ -1099,7 +1098,7 @@
         <v>19680.795666553178</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.4">
+    <row r="28" spans="1:5">
       <c r="A28" s="12">
         <v>39965</v>
       </c>
@@ -1116,7 +1115,7 @@
         <v>18212.726737867109</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.4">
+    <row r="29" spans="1:5">
       <c r="A29" s="12">
         <v>40057</v>
       </c>
@@ -1133,7 +1132,7 @@
         <v>19898.549129712224</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.4">
+    <row r="30" spans="1:5">
       <c r="A30" s="12">
         <v>40148</v>
       </c>
@@ -1150,7 +1149,7 @@
         <v>21174.000150264979</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14.4">
+    <row r="31" spans="1:5">
       <c r="A31" s="12">
         <v>40238</v>
       </c>
@@ -1167,7 +1166,7 @@
         <v>22820.579100993131</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.4">
+    <row r="32" spans="1:5">
       <c r="A32" s="12">
         <v>40330</v>
       </c>
@@ -1184,7 +1183,7 @@
         <v>24168.369215748884</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14.4">
+    <row r="33" spans="1:5">
       <c r="A33" s="12">
         <v>40422</v>
       </c>
@@ -1201,7 +1200,7 @@
         <v>25067.839280929635</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.4">
+    <row r="34" spans="1:5">
       <c r="A34" s="12">
         <v>40513</v>
       </c>
@@ -1218,7 +1217,7 @@
         <v>25140.641527079024</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.4">
+    <row r="35" spans="1:5">
       <c r="A35" s="12">
         <v>40603</v>
       </c>
@@ -1235,7 +1234,7 @@
         <v>24871.379408100249</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14.4">
+    <row r="36" spans="1:5">
       <c r="A36" s="12">
         <v>40695</v>
       </c>
@@ -1252,7 +1251,7 @@
         <v>25167.682248504323</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14.4">
+    <row r="37" spans="1:5">
       <c r="A37" s="12">
         <v>40787</v>
       </c>
@@ -1269,7 +1268,7 @@
         <v>26001.252788087219</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14.4">
+    <row r="38" spans="1:5">
       <c r="A38" s="12">
         <v>40878</v>
       </c>
@@ -1286,7 +1285,7 @@
         <v>27368.03484886136</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14.4">
+    <row r="39" spans="1:5">
       <c r="A39" s="12">
         <v>40969</v>
       </c>
@@ -1303,7 +1302,7 @@
         <v>28815.162405521554</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14.4">
+    <row r="40" spans="1:5">
       <c r="A40" s="12">
         <v>41061</v>
       </c>
@@ -1320,7 +1319,7 @@
         <v>29464.310607445077</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14.4">
+    <row r="41" spans="1:5">
       <c r="A41" s="12">
         <v>41153</v>
       </c>
@@ -1337,7 +1336,7 @@
         <v>30531.27966951397</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14.4">
+    <row r="42" spans="1:5">
       <c r="A42" s="12">
         <v>41244</v>
       </c>
@@ -1354,7 +1353,7 @@
         <v>31559.439027254051</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.4">
+    <row r="43" spans="1:5">
       <c r="A43" s="12">
         <v>41334</v>
       </c>
@@ -1371,7 +1370,7 @@
         <v>32278.930827155076</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14.4">
+    <row r="44" spans="1:5">
       <c r="A44" s="12">
         <v>41426</v>
       </c>
@@ -1388,7 +1387,7 @@
         <v>33022.287788255533</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14.4">
+    <row r="45" spans="1:5">
       <c r="A45" s="12">
         <v>41518</v>
       </c>
@@ -1405,7 +1404,7 @@
         <v>32745.931357925128</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14.4">
+    <row r="46" spans="1:5">
       <c r="A46" s="12">
         <v>41609</v>
       </c>
@@ -1422,7 +1421,7 @@
         <v>32049.472386063328</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="14.4">
+    <row r="47" spans="1:5">
       <c r="A47" s="12">
         <v>41699</v>
       </c>
@@ -1439,7 +1438,7 @@
         <v>32401.338089944515</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="14.4">
+    <row r="48" spans="1:5">
       <c r="A48" s="12">
         <v>41791</v>
       </c>
@@ -1456,7 +1455,7 @@
         <v>32326.189464218951</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="14.4">
+    <row r="49" spans="1:5">
       <c r="A49" s="12">
         <v>41883</v>
       </c>
@@ -1473,7 +1472,7 @@
         <v>31447.004148753804</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="14.4">
+    <row r="50" spans="1:5">
       <c r="A50" s="12">
         <v>41974</v>
       </c>
@@ -1490,7 +1489,7 @@
         <v>30943.214086438995</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="14.4">
+    <row r="51" spans="1:5">
       <c r="A51" s="12">
         <v>42064</v>
       </c>
@@ -1507,7 +1506,7 @@
         <v>30225.100483693557</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="14.4">
+    <row r="52" spans="1:5">
       <c r="A52" s="12">
         <v>42156</v>
       </c>
@@ -1524,7 +1523,7 @@
         <v>29940.48928426778</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="14.4">
+    <row r="53" spans="1:5">
       <c r="A53" s="12">
         <v>42248</v>
       </c>
@@ -1541,7 +1540,7 @@
         <v>30196.943813089423</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="14.4">
+    <row r="54" spans="1:5">
       <c r="A54" s="12">
         <v>42339</v>
       </c>
@@ -1558,7 +1557,7 @@
         <v>30453.219553140229</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="14.4">
+    <row r="55" spans="1:5">
       <c r="A55" s="12">
         <v>42430</v>
       </c>
@@ -1575,7 +1574,7 @@
         <v>30238.614123683277</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="14.4">
+    <row r="56" spans="1:5">
       <c r="A56" s="12">
         <v>42522</v>
       </c>
@@ -1592,7 +1591,7 @@
         <v>29320.611152432142</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="14.4">
+    <row r="57" spans="1:5">
       <c r="A57" s="12">
         <v>42614</v>
       </c>
@@ -1609,7 +1608,7 @@
         <v>28353.733681270751</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="14.4">
+    <row r="58" spans="1:5">
       <c r="A58" s="12">
         <v>42705</v>
       </c>
@@ -1626,7 +1625,7 @@
         <v>28362.411251377689</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="14.4">
+    <row r="59" spans="1:5">
       <c r="A59" s="12">
         <v>42795</v>
       </c>
@@ -1643,7 +1642,7 @@
         <v>28168.792635154852</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="14.4">
+    <row r="60" spans="1:5">
       <c r="A60" s="12">
         <v>42887</v>
       </c>
@@ -1660,7 +1659,7 @@
         <v>28095.03080488366</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="14.4">
+    <row r="61" spans="1:5">
       <c r="A61" s="12">
         <v>42979</v>
       </c>
@@ -1677,7 +1676,7 @@
         <v>29675.883750153454</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="14.4">
+    <row r="62" spans="1:5">
       <c r="A62" s="12">
         <v>43070</v>
       </c>
@@ -1694,7 +1693,7 @@
         <v>29487.183786121979</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="14.4">
+    <row r="63" spans="1:5">
       <c r="A63" s="12">
         <v>43160</v>
       </c>
@@ -1711,7 +1710,7 @@
         <v>29922.470533906715</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="14.4">
+    <row r="64" spans="1:5">
       <c r="A64" s="12">
         <v>43252</v>
       </c>
@@ -1728,7 +1727,7 @@
         <v>30173.882158689892</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="14.4">
+    <row r="65" spans="1:5">
       <c r="A65" s="12">
         <v>43344</v>
       </c>
@@ -1745,7 +1744,7 @@
         <v>29685.797150771767</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="14.4">
+    <row r="66" spans="1:5">
       <c r="A66" s="12">
         <v>43435</v>
       </c>
@@ -1762,7 +1761,7 @@
         <v>31020.017472623931</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="14.4">
+    <row r="67" spans="1:5">
       <c r="A67" s="12">
         <v>43525</v>
       </c>
@@ -1779,7 +1778,7 @@
         <v>30439.85352381444</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="14.4">
+    <row r="68" spans="1:5">
       <c r="A68" s="12">
         <v>43617</v>
       </c>
@@ -1796,7 +1795,7 @@
         <v>31738.381489155705</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="14.4">
+    <row r="69" spans="1:5">
       <c r="A69" s="12">
         <v>43709</v>
       </c>
@@ -1813,7 +1812,7 @@
         <v>31676.203508491082</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="14.4">
+    <row r="70" spans="1:5">
       <c r="A70" s="12">
         <v>43800</v>
       </c>
@@ -2040,19 +2039,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CA78F5-03B0-4A49-AF22-00CCB0A987CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I242"/>
   <sheetViews>
     <sheetView topLeftCell="A240" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="5" width="16.33203125" style="4" customWidth="1"/>
-    <col min="6" max="9" width="16.33203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="5" width="16.28515625" style="4" customWidth="1"/>
+    <col min="6" max="9" width="16.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2081,7 +2080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="69">
+    <row r="2" spans="1:9" ht="75">
       <c r="B2" s="8" t="s">
         <v>16</v>
       </c>
@@ -2107,7 +2106,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.4">
+    <row r="3" spans="1:9">
       <c r="A3" s="12">
         <v>37622</v>
       </c>
@@ -2136,7 +2135,7 @@
         <v>1.2351612903225806</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.4">
+    <row r="4" spans="1:9">
       <c r="A4" s="12">
         <v>37653</v>
       </c>
@@ -2165,7 +2164,7 @@
         <v>1.262142857142857</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.4">
+    <row r="5" spans="1:9">
       <c r="A5" s="12">
         <v>37681</v>
       </c>
@@ -2194,7 +2193,7 @@
         <v>1.2529032258064516</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.4">
+    <row r="6" spans="1:9">
       <c r="A6" s="12">
         <v>37712</v>
       </c>
@@ -2223,7 +2222,7 @@
         <v>1.258</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.4">
+    <row r="7" spans="1:9">
       <c r="A7" s="12">
         <v>37742</v>
       </c>
@@ -2252,7 +2251,7 @@
         <v>1.2590322580645161</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.4">
+    <row r="8" spans="1:9">
       <c r="A8" s="12">
         <v>37773</v>
       </c>
@@ -2281,7 +2280,7 @@
         <v>1.2226666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.4">
+    <row r="9" spans="1:9">
       <c r="A9" s="12">
         <v>37803</v>
       </c>
@@ -2310,7 +2309,7 @@
         <v>1.0112903225806451</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.4">
+    <row r="10" spans="1:9">
       <c r="A10" s="12">
         <v>37834</v>
       </c>
@@ -2339,7 +2338,7 @@
         <v>1.0290322580645161</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.4">
+    <row r="11" spans="1:9">
       <c r="A11" s="12">
         <v>37865</v>
       </c>
@@ -2368,7 +2367,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.4">
+    <row r="12" spans="1:9">
       <c r="A12" s="12">
         <v>37895</v>
       </c>
@@ -2397,7 +2396,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.4">
+    <row r="13" spans="1:9">
       <c r="A13" s="12">
         <v>37926</v>
       </c>
@@ -2426,7 +2425,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.4">
+    <row r="14" spans="1:9">
       <c r="A14" s="12">
         <v>37956</v>
       </c>
@@ -2455,7 +2454,7 @@
         <v>0.98419354838709683</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.4">
+    <row r="15" spans="1:9">
       <c r="A15" s="12">
         <v>37987</v>
       </c>
@@ -2484,7 +2483,7 @@
         <v>0.99709677419354836</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.4">
+    <row r="16" spans="1:9">
       <c r="A16" s="12">
         <v>38018</v>
       </c>
@@ -2513,7 +2512,7 @@
         <v>1.0072413793103447</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.4">
+    <row r="17" spans="1:9">
       <c r="A17" s="12">
         <v>38047</v>
       </c>
@@ -2542,7 +2541,7 @@
         <v>1.0016129032258065</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.4">
+    <row r="18" spans="1:9">
       <c r="A18" s="12">
         <v>38078</v>
       </c>
@@ -2571,7 +2570,7 @@
         <v>1.004</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.4">
+    <row r="19" spans="1:9">
       <c r="A19" s="12">
         <v>38108</v>
       </c>
@@ -2600,7 +2599,7 @@
         <v>1.004516129032258</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="14.4">
+    <row r="20" spans="1:9">
       <c r="A20" s="12">
         <v>38139</v>
       </c>
@@ -2629,7 +2628,7 @@
         <v>1.0256666666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.4">
+    <row r="21" spans="1:9">
       <c r="A21" s="12">
         <v>38169</v>
       </c>
@@ -2658,7 +2657,7 @@
         <v>1.2635483870967743</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.4">
+    <row r="22" spans="1:9">
       <c r="A22" s="12">
         <v>38200</v>
       </c>
@@ -2687,7 +2686,7 @@
         <v>1.4293548387096775</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="14.4">
+    <row r="23" spans="1:9">
       <c r="A23" s="12">
         <v>38231</v>
       </c>
@@ -2716,7 +2715,7 @@
         <v>1.605</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.4">
+    <row r="24" spans="1:9">
       <c r="A24" s="12">
         <v>38261</v>
       </c>
@@ -2745,7 +2744,7 @@
         <v>1.7609677419354839</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="14.4">
+    <row r="25" spans="1:9">
       <c r="A25" s="12">
         <v>38292</v>
       </c>
@@ -2774,7 +2773,7 @@
         <v>1.9319999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="14.4">
+    <row r="26" spans="1:9">
       <c r="A26" s="12">
         <v>38322</v>
       </c>
@@ -2803,7 +2802,7 @@
         <v>2.1561290322580646</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="14.4">
+    <row r="27" spans="1:9">
       <c r="A27" s="12">
         <v>38353</v>
       </c>
@@ -2832,7 +2831,7 @@
         <v>2.2793548387096774</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="14.4">
+    <row r="28" spans="1:9">
       <c r="A28" s="12">
         <v>38384</v>
       </c>
@@ -2861,7 +2860,7 @@
         <v>2.5017857142857145</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="14.4">
+    <row r="29" spans="1:9">
       <c r="A29" s="12">
         <v>38412</v>
       </c>
@@ -2890,7 +2889,7 @@
         <v>2.629032258064516</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.4">
+    <row r="30" spans="1:9">
       <c r="A30" s="12">
         <v>38443</v>
       </c>
@@ -2919,7 +2918,7 @@
         <v>2.7850000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="14.4">
+    <row r="31" spans="1:9">
       <c r="A31" s="12">
         <v>38473</v>
       </c>
@@ -2948,7 +2947,7 @@
         <v>3.0025806451612902</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="14.4">
+    <row r="32" spans="1:9">
       <c r="A32" s="12">
         <v>38504</v>
       </c>
@@ -2977,7 +2976,7 @@
         <v>3.0356666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="14.4">
+    <row r="33" spans="1:9">
       <c r="A33" s="12">
         <v>38534</v>
       </c>
@@ -3006,7 +3005,7 @@
         <v>3.2625806451612904</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="14.4">
+    <row r="34" spans="1:9">
       <c r="A34" s="12">
         <v>38565</v>
       </c>
@@ -3035,7 +3034,7 @@
         <v>3.4996774193548386</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="14.4">
+    <row r="35" spans="1:9">
       <c r="A35" s="12">
         <v>38596</v>
       </c>
@@ -3064,7 +3063,7 @@
         <v>3.6230000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.4">
+    <row r="36" spans="1:9">
       <c r="A36" s="12">
         <v>38626</v>
       </c>
@@ -3093,7 +3092,7 @@
         <v>3.7793548387096774</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14.4">
+    <row r="37" spans="1:9">
       <c r="A37" s="12">
         <v>38657</v>
       </c>
@@ -3122,7 +3121,7 @@
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.4">
+    <row r="38" spans="1:9">
       <c r="A38" s="12">
         <v>38687</v>
       </c>
@@ -3151,7 +3150,7 @@
         <v>4.1570967741935485</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="14.4">
+    <row r="39" spans="1:9">
       <c r="A39" s="12">
         <v>38718</v>
       </c>
@@ -3180,7 +3179,7 @@
         <v>4.2851612903225806</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="14.4">
+    <row r="40" spans="1:9">
       <c r="A40" s="12">
         <v>38749</v>
       </c>
@@ -3209,7 +3208,7 @@
         <v>4.4914285714285711</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="14.4">
+    <row r="41" spans="1:9">
       <c r="A41" s="12">
         <v>38777</v>
       </c>
@@ -3238,7 +3237,7 @@
         <v>4.589354838709677</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="14.4">
+    <row r="42" spans="1:9">
       <c r="A42" s="12">
         <v>38808</v>
       </c>
@@ -3267,7 +3266,7 @@
         <v>4.7903333333333329</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="14.4">
+    <row r="43" spans="1:9">
       <c r="A43" s="12">
         <v>38838</v>
       </c>
@@ -3296,7 +3295,7 @@
         <v>4.9403225806451614</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="14.4">
+    <row r="44" spans="1:9">
       <c r="A44" s="12">
         <v>38869</v>
       </c>
@@ -3325,7 +3324,7 @@
         <v>4.9909999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="14.4">
+    <row r="45" spans="1:9">
       <c r="A45" s="12">
         <v>38899</v>
       </c>
@@ -3354,7 +3353,7 @@
         <v>5.2351612903225808</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="14.4">
+    <row r="46" spans="1:9">
       <c r="A46" s="12">
         <v>38930</v>
       </c>
@@ -3383,7 +3382,7 @@
         <v>5.2464516129032255</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="14.4">
+    <row r="47" spans="1:9">
       <c r="A47" s="12">
         <v>38961</v>
       </c>
@@ -3412,7 +3411,7 @@
         <v>5.254666666666667</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="14.4">
+    <row r="48" spans="1:9">
       <c r="A48" s="12">
         <v>38991</v>
       </c>
@@ -3441,7 +3440,7 @@
         <v>5.2451612903225806</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="14.4">
+    <row r="49" spans="1:9">
       <c r="A49" s="12">
         <v>39022</v>
       </c>
@@ -3470,7 +3469,7 @@
         <v>5.2456666666666667</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="14.4">
+    <row r="50" spans="1:9">
       <c r="A50" s="12">
         <v>39052</v>
       </c>
@@ -3499,7 +3498,7 @@
         <v>5.2380645161290325</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="14.4">
+    <row r="51" spans="1:9">
       <c r="A51" s="12">
         <v>39083</v>
       </c>
@@ -3528,7 +3527,7 @@
         <v>5.2483870967741932</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="14.4">
+    <row r="52" spans="1:9">
       <c r="A52" s="12">
         <v>39114</v>
       </c>
@@ -3557,7 +3556,7 @@
         <v>5.2589285714285712</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="14.4">
+    <row r="53" spans="1:9">
       <c r="A53" s="12">
         <v>39142</v>
       </c>
@@ -3586,7 +3585,7 @@
         <v>5.2567741935483872</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="14.4">
+    <row r="54" spans="1:9">
       <c r="A54" s="12">
         <v>39173</v>
       </c>
@@ -3615,7 +3614,7 @@
         <v>5.2496666666666663</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="14.4">
+    <row r="55" spans="1:9">
       <c r="A55" s="12">
         <v>39203</v>
       </c>
@@ -3644,7 +3643,7 @@
         <v>5.2535483870967745</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="14.4">
+    <row r="56" spans="1:9">
       <c r="A56" s="12">
         <v>39234</v>
       </c>
@@ -3673,7 +3672,7 @@
         <v>5.2539999999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="14.4">
+    <row r="57" spans="1:9">
       <c r="A57" s="12">
         <v>39264</v>
       </c>
@@ -3702,7 +3701,7 @@
         <v>5.2583870967741939</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="14.4">
+    <row r="58" spans="1:9">
       <c r="A58" s="12">
         <v>39295</v>
       </c>
@@ -3731,7 +3730,7 @@
         <v>5.0222580645161292</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="14.4">
+    <row r="59" spans="1:9">
       <c r="A59" s="12">
         <v>39326</v>
       </c>
@@ -3760,7 +3759,7 @@
         <v>4.9379999999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="14.4">
+    <row r="60" spans="1:9">
       <c r="A60" s="12">
         <v>39356</v>
       </c>
@@ -3789,7 +3788,7 @@
         <v>4.7554838709677423</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="14.4">
+    <row r="61" spans="1:9">
       <c r="A61" s="12">
         <v>39387</v>
       </c>
@@ -3818,7 +3817,7 @@
         <v>4.4866666666666664</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="14.4">
+    <row r="62" spans="1:9">
       <c r="A62" s="12">
         <v>39417</v>
       </c>
@@ -3847,7 +3846,7 @@
         <v>4.2445161290322577</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="14.4">
+    <row r="63" spans="1:9">
       <c r="A63" s="12">
         <v>39448</v>
       </c>
@@ -3876,7 +3875,7 @@
         <v>3.9403225806451614</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="14.4">
+    <row r="64" spans="1:9">
       <c r="A64" s="12">
         <v>39479</v>
       </c>
@@ -3905,7 +3904,7 @@
         <v>2.980689655172414</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="14.4">
+    <row r="65" spans="1:9">
       <c r="A65" s="12">
         <v>39508</v>
       </c>
@@ -3934,7 +3933,7 @@
         <v>2.6103225806451613</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="14.4">
+    <row r="66" spans="1:9">
       <c r="A66" s="12">
         <v>39539</v>
       </c>
@@ -3963,7 +3962,7 @@
         <v>2.2783333333333333</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="14.4">
+    <row r="67" spans="1:9">
       <c r="A67" s="12">
         <v>39569</v>
       </c>
@@ -3992,7 +3991,7 @@
         <v>1.9783870967741934</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="14.4">
+    <row r="68" spans="1:9">
       <c r="A68" s="12">
         <v>39600</v>
       </c>
@@ -4021,7 +4020,7 @@
         <v>2.0009999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="14.4">
+    <row r="69" spans="1:9">
       <c r="A69" s="12">
         <v>39630</v>
       </c>
@@ -4050,7 +4049,7 @@
         <v>2.0096774193548388</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="14.4">
+    <row r="70" spans="1:9">
       <c r="A70" s="12">
         <v>39661</v>
       </c>
@@ -4079,7 +4078,7 @@
         <v>1.9964516129032257</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="14.4">
+    <row r="71" spans="1:9">
       <c r="A71" s="12">
         <v>39692</v>
       </c>
@@ -4108,7 +4107,7 @@
         <v>1.8116666666666668</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="14.4">
+    <row r="72" spans="1:9">
       <c r="A72" s="12">
         <v>39722</v>
       </c>
@@ -4137,7 +4136,7 @@
         <v>0.96935483870967742</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="14.4">
+    <row r="73" spans="1:9">
       <c r="A73" s="12">
         <v>39753</v>
       </c>
@@ -4166,7 +4165,7 @@
         <v>0.38766666666666666</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="14.4">
+    <row r="74" spans="1:9">
       <c r="A74" s="12">
         <v>39783</v>
       </c>
@@ -4195,7 +4194,7 @@
         <v>0.15516129032258064</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="14.4">
+    <row r="75" spans="1:9">
       <c r="A75" s="12">
         <v>39814</v>
       </c>
@@ -4224,7 +4223,7 @@
         <v>0.15419354838709678</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="14.4">
+    <row r="76" spans="1:9">
       <c r="A76" s="12">
         <v>39845</v>
       </c>
@@ -4253,7 +4252,7 @@
         <v>0.22214285714285714</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="14.4">
+    <row r="77" spans="1:9">
       <c r="A77" s="12">
         <v>39873</v>
       </c>
@@ -4282,7 +4281,7 @@
         <v>0.18064516129032257</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="14.4">
+    <row r="78" spans="1:9">
       <c r="A78" s="12">
         <v>39904</v>
       </c>
@@ -4311,7 +4310,7 @@
         <v>0.15033333333333335</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="14.4">
+    <row r="79" spans="1:9">
       <c r="A79" s="12">
         <v>39934</v>
       </c>
@@ -4340,7 +4339,7 @@
         <v>0.17741935483870969</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="14.4">
+    <row r="80" spans="1:9">
       <c r="A80" s="12">
         <v>39965</v>
       </c>
@@ -4369,7 +4368,7 @@
         <v>0.20633333333333334</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="14.4">
+    <row r="81" spans="1:9">
       <c r="A81" s="12">
         <v>39995</v>
       </c>
@@ -4398,7 +4397,7 @@
         <v>0.15580645161290321</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="14.4">
+    <row r="82" spans="1:9">
       <c r="A82" s="12">
         <v>40026</v>
       </c>
@@ -4427,7 +4426,7 @@
         <v>0.16032258064516128</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="14.4">
+    <row r="83" spans="1:9">
       <c r="A83" s="12">
         <v>40057</v>
       </c>
@@ -4456,7 +4455,7 @@
         <v>0.14666666666666667</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="14.4">
+    <row r="84" spans="1:9">
       <c r="A84" s="12">
         <v>40087</v>
       </c>
@@ -4485,7 +4484,7 @@
         <v>0.11806451612903225</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="14.4">
+    <row r="85" spans="1:9">
       <c r="A85" s="12">
         <v>40118</v>
       </c>
@@ -4514,7 +4513,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="14.4">
+    <row r="86" spans="1:9">
       <c r="A86" s="12">
         <v>40148</v>
       </c>
@@ -4543,7 +4542,7 @@
         <v>0.11806451612903225</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="14.4">
+    <row r="87" spans="1:9">
       <c r="A87" s="12">
         <v>40179</v>
       </c>
@@ -4572,7 +4571,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="14.4">
+    <row r="88" spans="1:9">
       <c r="A88" s="12">
         <v>40210</v>
       </c>
@@ -4601,7 +4600,7 @@
         <v>0.12642857142857142</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="14.4">
+    <row r="89" spans="1:9">
       <c r="A89" s="12">
         <v>40238</v>
       </c>
@@ -4630,7 +4629,7 @@
         <v>0.16451612903225807</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="14.4">
+    <row r="90" spans="1:9">
       <c r="A90" s="12">
         <v>40269</v>
       </c>
@@ -4659,7 +4658,7 @@
         <v>0.19833333333333333</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="14.4">
+    <row r="91" spans="1:9">
       <c r="A91" s="12">
         <v>40299</v>
       </c>
@@ -4688,7 +4687,7 @@
         <v>0.20064516129032259</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="14.4">
+    <row r="92" spans="1:9">
       <c r="A92" s="12">
         <v>40330</v>
       </c>
@@ -4717,7 +4716,7 @@
         <v>0.17666666666666667</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="14.4">
+    <row r="93" spans="1:9">
       <c r="A93" s="12">
         <v>40360</v>
       </c>
@@ -4746,7 +4745,7 @@
         <v>0.18258064516129033</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="14.4">
+    <row r="94" spans="1:9">
       <c r="A94" s="12">
         <v>40391</v>
       </c>
@@ -4775,7 +4774,7 @@
         <v>0.18935483870967743</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="14.4">
+    <row r="95" spans="1:9">
       <c r="A95" s="12">
         <v>40422</v>
       </c>
@@ -4804,7 +4803,7 @@
         <v>0.19466666666666665</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="14.4">
+    <row r="96" spans="1:9">
       <c r="A96" s="12">
         <v>40452</v>
       </c>
@@ -4833,7 +4832,7 @@
         <v>0.19129032258064516</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="14.4">
+    <row r="97" spans="1:9">
       <c r="A97" s="12">
         <v>40483</v>
       </c>
@@ -4862,7 +4861,7 @@
         <v>0.19433333333333333</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="14.4">
+    <row r="98" spans="1:9">
       <c r="A98" s="12">
         <v>40513</v>
       </c>
@@ -4891,7 +4890,7 @@
         <v>0.1832258064516129</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="14.4">
+    <row r="99" spans="1:9">
       <c r="A99" s="12">
         <v>40544</v>
       </c>
@@ -4920,7 +4919,7 @@
         <v>0.16838709677419356</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="14.4">
+    <row r="100" spans="1:9">
       <c r="A100" s="12">
         <v>40575</v>
       </c>
@@ -4949,7 +4948,7 @@
         <v>0.15678571428571428</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="14.4">
+    <row r="101" spans="1:9">
       <c r="A101" s="12">
         <v>40603</v>
       </c>
@@ -4978,7 +4977,7 @@
         <v>0.13870967741935483</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="14.4">
+    <row r="102" spans="1:9">
       <c r="A102" s="12">
         <v>40634</v>
       </c>
@@ -5007,7 +5006,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="14.4">
+    <row r="103" spans="1:9">
       <c r="A103" s="12">
         <v>40664</v>
       </c>
@@ -5036,7 +5035,7 @@
         <v>9.3870967741935485E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="14.4">
+    <row r="104" spans="1:9">
       <c r="A104" s="12">
         <v>40695</v>
       </c>
@@ -5065,7 +5064,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="14.4">
+    <row r="105" spans="1:9">
       <c r="A105" s="12">
         <v>40725</v>
       </c>
@@ -5094,7 +5093,7 @@
         <v>7.0967741935483872E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="14.4">
+    <row r="106" spans="1:9">
       <c r="A106" s="12">
         <v>40756</v>
       </c>
@@ -5123,7 +5122,7 @@
         <v>9.5806451612903229E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="14.4">
+    <row r="107" spans="1:9">
       <c r="A107" s="12">
         <v>40787</v>
       </c>
@@ -5152,7 +5151,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="14.4">
+    <row r="108" spans="1:9">
       <c r="A108" s="12">
         <v>40817</v>
       </c>
@@ -5181,7 +5180,7 @@
         <v>7.0645161290322583E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="14.4">
+    <row r="109" spans="1:9">
       <c r="A109" s="12">
         <v>40848</v>
       </c>
@@ -5210,7 +5209,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="14.4">
+    <row r="110" spans="1:9">
       <c r="A110" s="12">
         <v>40878</v>
       </c>
@@ -5239,7 +5238,7 @@
         <v>7.1612903225806449E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="14.4">
+    <row r="111" spans="1:9">
       <c r="A111" s="12">
         <v>40909</v>
       </c>
@@ -5268,7 +5267,7 @@
         <v>8.1935483870967746E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="14.4">
+    <row r="112" spans="1:9">
       <c r="A112" s="12">
         <v>40940</v>
       </c>
@@ -5297,7 +5296,7 @@
         <v>0.10379310344827586</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="14.4">
+    <row r="113" spans="1:9">
       <c r="A113" s="12">
         <v>40969</v>
       </c>
@@ -5326,7 +5325,7 @@
         <v>0.12677419354838709</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="14.4">
+    <row r="114" spans="1:9">
       <c r="A114" s="12">
         <v>41000</v>
       </c>
@@ -5355,7 +5354,7 @@
         <v>0.13933333333333334</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="14.4">
+    <row r="115" spans="1:9">
       <c r="A115" s="12">
         <v>41030</v>
       </c>
@@ -5384,7 +5383,7 @@
         <v>0.15580645161290321</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="14.4">
+    <row r="116" spans="1:9">
       <c r="A116" s="12">
         <v>41061</v>
       </c>
@@ -5413,7 +5412,7 @@
         <v>0.16166666666666665</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="14.4">
+    <row r="117" spans="1:9">
       <c r="A117" s="12">
         <v>41091</v>
       </c>
@@ -5442,7 +5441,7 @@
         <v>0.15645161290322582</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="14.4">
+    <row r="118" spans="1:9">
       <c r="A118" s="12">
         <v>41122</v>
       </c>
@@ -5471,7 +5470,7 @@
         <v>0.13225806451612904</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="14.4">
+    <row r="119" spans="1:9">
       <c r="A119" s="12">
         <v>41153</v>
       </c>
@@ -5500,7 +5499,7 @@
         <v>0.14433333333333334</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="14.4">
+    <row r="120" spans="1:9">
       <c r="A120" s="12">
         <v>41183</v>
       </c>
@@ -5529,7 +5528,7 @@
         <v>0.15838709677419355</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="14.4">
+    <row r="121" spans="1:9">
       <c r="A121" s="12">
         <v>41214</v>
       </c>
@@ -5558,7 +5557,7 @@
         <v>0.16066666666666668</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="14.4">
+    <row r="122" spans="1:9">
       <c r="A122" s="12">
         <v>41244</v>
       </c>
@@ -5587,7 +5586,7 @@
         <v>0.16451612903225807</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="14.4">
+    <row r="123" spans="1:9">
       <c r="A123" s="12">
         <v>41275</v>
       </c>
@@ -5616,7 +5615,7 @@
         <v>0.14258064516129032</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="14.4">
+    <row r="124" spans="1:9">
       <c r="A124" s="12">
         <v>41306</v>
       </c>
@@ -5645,7 +5644,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="14.4">
+    <row r="125" spans="1:9">
       <c r="A125" s="12">
         <v>41334</v>
       </c>
@@ -5674,7 +5673,7 @@
         <v>0.1435483870967742</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="14.4">
+    <row r="126" spans="1:9">
       <c r="A126" s="12">
         <v>41365</v>
       </c>
@@ -5703,7 +5702,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="14.4">
+    <row r="127" spans="1:9">
       <c r="A127" s="12">
         <v>41395</v>
       </c>
@@ -5732,7 +5731,7 @@
         <v>0.10903225806451614</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="14.4">
+    <row r="128" spans="1:9">
       <c r="A128" s="12">
         <v>41426</v>
       </c>
@@ -5761,7 +5760,7 @@
         <v>9.3666666666666662E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="14.4">
+    <row r="129" spans="1:9">
       <c r="A129" s="12">
         <v>41456</v>
       </c>
@@ -5790,7 +5789,7 @@
         <v>9.2580645161290318E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="14.4">
+    <row r="130" spans="1:9">
       <c r="A130" s="12">
         <v>41487</v>
       </c>
@@ -5819,7 +5818,7 @@
         <v>8.2903225806451611E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="14.4">
+    <row r="131" spans="1:9">
       <c r="A131" s="12">
         <v>41518</v>
       </c>
@@ -5848,7 +5847,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="14.4">
+    <row r="132" spans="1:9">
       <c r="A132" s="12">
         <v>41548</v>
       </c>
@@ -5877,7 +5876,7 @@
         <v>8.7096774193548387E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="14.4">
+    <row r="133" spans="1:9">
       <c r="A133" s="12">
         <v>41579</v>
       </c>
@@ -5906,7 +5905,7 @@
         <v>8.433333333333333E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="14.4">
+    <row r="134" spans="1:9">
       <c r="A134" s="12">
         <v>41609</v>
       </c>
@@ -5935,7 +5934,7 @@
         <v>8.5161290322580643E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="14.4">
+    <row r="135" spans="1:9">
       <c r="A135" s="12">
         <v>41640</v>
       </c>
@@ -5964,7 +5963,7 @@
         <v>7.1612903225806449E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="14.4">
+    <row r="136" spans="1:9">
       <c r="A136" s="12">
         <v>41671</v>
       </c>
@@ -5993,7 +5992,7 @@
         <v>6.6428571428571434E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="14.4">
+    <row r="137" spans="1:9">
       <c r="A137" s="12">
         <v>41699</v>
       </c>
@@ -6022,7 +6021,7 @@
         <v>7.8064516129032258E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="14.4">
+    <row r="138" spans="1:9">
       <c r="A138" s="12">
         <v>41730</v>
       </c>
@@ -6051,7 +6050,7 @@
         <v>9.0333333333333335E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="14.4">
+    <row r="139" spans="1:9">
       <c r="A139" s="12">
         <v>41760</v>
       </c>
@@ -6080,7 +6079,7 @@
         <v>8.7096774193548387E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="14.4">
+    <row r="140" spans="1:9">
       <c r="A140" s="12">
         <v>41791</v>
       </c>
@@ -6109,7 +6108,7 @@
         <v>9.5666666666666664E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="14.4">
+    <row r="141" spans="1:9">
       <c r="A141" s="12">
         <v>41821</v>
       </c>
@@ -6138,7 +6137,7 @@
         <v>9.0967741935483876E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="14.4">
+    <row r="142" spans="1:9">
       <c r="A142" s="12">
         <v>41852</v>
       </c>
@@ -6167,7 +6166,7 @@
         <v>8.8064516129032253E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="14.4">
+    <row r="143" spans="1:9">
       <c r="A143" s="12">
         <v>41883</v>
       </c>
@@ -6196,7 +6195,7 @@
         <v>8.8333333333333333E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="14.4">
+    <row r="144" spans="1:9">
       <c r="A144" s="12">
         <v>41913</v>
       </c>
@@ -6225,7 +6224,7 @@
         <v>8.9032258064516132E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="14.4">
+    <row r="145" spans="1:9">
       <c r="A145" s="12">
         <v>41944</v>
       </c>
@@ -6254,7 +6253,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="14.4">
+    <row r="146" spans="1:9">
       <c r="A146" s="12">
         <v>41974</v>
       </c>
@@ -6283,7 +6282,7 @@
         <v>0.12258064516129032</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="14.4">
+    <row r="147" spans="1:9">
       <c r="A147" s="12">
         <v>42005</v>
       </c>
@@ -6312,7 +6311,7 @@
         <v>0.11483870967741935</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="14.4">
+    <row r="148" spans="1:9">
       <c r="A148" s="12">
         <v>42036</v>
       </c>
@@ -6341,7 +6340,7 @@
         <v>0.11071428571428571</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="14.4">
+    <row r="149" spans="1:9">
       <c r="A149" s="12">
         <v>42064</v>
       </c>
@@ -6370,7 +6369,7 @@
         <v>0.11290322580645161</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="14.4">
+    <row r="150" spans="1:9">
       <c r="A150" s="12">
         <v>42095</v>
       </c>
@@ -6399,7 +6398,7 @@
         <v>0.12466666666666666</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="14.4">
+    <row r="151" spans="1:9">
       <c r="A151" s="12">
         <v>42125</v>
       </c>
@@ -6428,7 +6427,7 @@
         <v>0.12322580645161291</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="14.4">
+    <row r="152" spans="1:9">
       <c r="A152" s="12">
         <v>42156</v>
       </c>
@@ -6457,7 +6456,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="14.4">
+    <row r="153" spans="1:9">
       <c r="A153" s="12">
         <v>42186</v>
       </c>
@@ -6486,7 +6485,7 @@
         <v>0.13032258064516128</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="14.4">
+    <row r="154" spans="1:9">
       <c r="A154" s="12">
         <v>42217</v>
       </c>
@@ -6515,7 +6514,7 @@
         <v>0.13806451612903226</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="14.4">
+    <row r="155" spans="1:9">
       <c r="A155" s="12">
         <v>42248</v>
       </c>
@@ -6544,7 +6543,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="14.4">
+    <row r="156" spans="1:9">
       <c r="A156" s="12">
         <v>42278</v>
       </c>
@@ -6573,7 +6572,7 @@
         <v>0.1235483870967742</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="14.4">
+    <row r="157" spans="1:9">
       <c r="A157" s="12">
         <v>42309</v>
       </c>
@@ -6602,7 +6601,7 @@
         <v>0.11766666666666667</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="14.4">
+    <row r="158" spans="1:9">
       <c r="A158" s="12">
         <v>42339</v>
       </c>
@@ -6631,7 +6630,7 @@
         <v>0.24064516129032257</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="14.4">
+    <row r="159" spans="1:9">
       <c r="A159" s="12">
         <v>42370</v>
       </c>
@@ -6660,7 +6659,7 @@
         <v>0.34290322580645161</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="14.4">
+    <row r="160" spans="1:9">
       <c r="A160" s="12">
         <v>42401</v>
       </c>
@@ -6689,7 +6688,7 @@
         <v>0.37517241379310345</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="14.4">
+    <row r="161" spans="1:9">
       <c r="A161" s="12">
         <v>42430</v>
       </c>
@@ -6718,7 +6717,7 @@
         <v>0.36225806451612902</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="14.4">
+    <row r="162" spans="1:9">
       <c r="A162" s="12">
         <v>42461</v>
       </c>
@@ -6747,7 +6746,7 @@
         <v>0.36533333333333334</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="14.4">
+    <row r="163" spans="1:9">
       <c r="A163" s="12">
         <v>42491</v>
       </c>
@@ -6776,7 +6775,7 @@
         <v>0.36516129032258066</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="14.4">
+    <row r="164" spans="1:9">
       <c r="A164" s="12">
         <v>42522</v>
       </c>
@@ -6805,7 +6804,7 @@
         <v>0.37766666666666665</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="14.4">
+    <row r="165" spans="1:9">
       <c r="A165" s="12">
         <v>42552</v>
       </c>
@@ -6834,7 +6833,7 @@
         <v>0.39161290322580644</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="14.4">
+    <row r="166" spans="1:9">
       <c r="A166" s="12">
         <v>42583</v>
       </c>
@@ -6863,7 +6862,7 @@
         <v>0.39677419354838711</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="14.4">
+    <row r="167" spans="1:9">
       <c r="A167" s="12">
         <v>42614</v>
       </c>
@@ -6892,7 +6891,7 @@
         <v>0.39633333333333332</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="14.4">
+    <row r="168" spans="1:9">
       <c r="A168" s="12">
         <v>42644</v>
       </c>
@@ -6921,7 +6920,7 @@
         <v>0.39645161290322578</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="14.4">
+    <row r="169" spans="1:9">
       <c r="A169" s="12">
         <v>42675</v>
       </c>
@@ -6950,7 +6949,7 @@
         <v>0.40666666666666668</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="14.4">
+    <row r="170" spans="1:9">
       <c r="A170" s="12">
         <v>42705</v>
       </c>
@@ -6979,7 +6978,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="14.4">
+    <row r="171" spans="1:9">
       <c r="A171" s="12">
         <v>42736</v>
       </c>
@@ -7008,7 +7007,7 @@
         <v>0.64967741935483869</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="14.4">
+    <row r="172" spans="1:9">
       <c r="A172" s="12">
         <v>42767</v>
       </c>
@@ -7037,7 +7036,7 @@
         <v>0.65678571428571431</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="14.4">
+    <row r="173" spans="1:9">
       <c r="A173" s="12">
         <v>42795</v>
       </c>
@@ -7066,7 +7065,7 @@
         <v>0.78612903225806452</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="14.4">
+    <row r="174" spans="1:9">
       <c r="A174" s="12">
         <v>42826</v>
       </c>
@@ -7095,7 +7094,7 @@
         <v>0.89600000000000002</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="14.4">
+    <row r="175" spans="1:9">
       <c r="A175" s="12">
         <v>42856</v>
       </c>
@@ -7124,7 +7123,7 @@
         <v>0.90741935483870972</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="14.4">
+    <row r="176" spans="1:9">
       <c r="A176" s="12">
         <v>42887</v>
       </c>
@@ -7153,7 +7152,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="14.4">
+    <row r="177" spans="1:9">
       <c r="A177" s="12">
         <v>42917</v>
       </c>
@@ -7182,7 +7181,7 @@
         <v>1.1506451612903226</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="14.4">
+    <row r="178" spans="1:9">
       <c r="A178" s="12">
         <v>42948</v>
       </c>
@@ -7211,7 +7210,7 @@
         <v>1.1570967741935485</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="14.4">
+    <row r="179" spans="1:9">
       <c r="A179" s="12">
         <v>42979</v>
       </c>
@@ -7240,7 +7239,7 @@
         <v>1.1533333333333333</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="14.4">
+    <row r="180" spans="1:9">
       <c r="A180" s="12">
         <v>43009</v>
       </c>
@@ -7269,7 +7268,7 @@
         <v>1.1538709677419354</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="14.4">
+    <row r="181" spans="1:9">
       <c r="A181" s="12">
         <v>43040</v>
       </c>
@@ -7298,7 +7297,7 @@
         <v>1.157</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="14.4">
+    <row r="182" spans="1:9">
       <c r="A182" s="12">
         <v>43070</v>
       </c>
@@ -7327,7 +7326,7 @@
         <v>1.3016129032258066</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="14.4">
+    <row r="183" spans="1:9">
       <c r="A183" s="12">
         <v>43101</v>
       </c>
@@ -7356,7 +7355,7 @@
         <v>1.4145161290322581</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="14.4">
+    <row r="184" spans="1:9">
       <c r="A184" s="12">
         <v>43132</v>
       </c>
@@ -7385,7 +7384,7 @@
         <v>1.4175</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="14.4">
+    <row r="185" spans="1:9">
       <c r="A185" s="12">
         <v>43160</v>
       </c>
@@ -7414,7 +7413,7 @@
         <v>1.5061290322580645</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="14.4">
+    <row r="186" spans="1:9">
       <c r="A186" s="12">
         <v>43191</v>
       </c>
@@ -7443,7 +7442,7 @@
         <v>1.6923333333333332</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="14.4">
+    <row r="187" spans="1:9">
       <c r="A187" s="12">
         <v>43221</v>
       </c>
@@ -7472,7 +7471,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="14.4">
+    <row r="188" spans="1:9">
       <c r="A188" s="12">
         <v>43252</v>
       </c>
@@ -7501,7 +7500,7 @@
         <v>1.8196666666666668</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="14.4">
+    <row r="189" spans="1:9">
       <c r="A189" s="12">
         <v>43282</v>
       </c>
@@ -7530,7 +7529,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="14.4">
+    <row r="190" spans="1:9">
       <c r="A190" s="12">
         <v>43313</v>
       </c>
@@ -7559,7 +7558,7 @@
         <v>1.9148387096774193</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="14.4">
+    <row r="191" spans="1:9">
       <c r="A191" s="12">
         <v>43344</v>
       </c>
@@ -7588,7 +7587,7 @@
         <v>1.9546666666666668</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="14.4">
+    <row r="192" spans="1:9">
       <c r="A192" s="12">
         <v>43374</v>
       </c>
@@ -7617,7 +7616,7 @@
         <v>2.1877419354838712</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="14.4">
+    <row r="193" spans="1:9">
       <c r="A193" s="12">
         <v>43405</v>
       </c>
@@ -7646,7 +7645,7 @@
         <v>2.1976666666666667</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="14.4">
+    <row r="194" spans="1:9">
       <c r="A194" s="12">
         <v>43435</v>
       </c>
@@ -7675,7 +7674,7 @@
         <v>2.274193548387097</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="14.4">
+    <row r="195" spans="1:9">
       <c r="A195" s="12">
         <v>43466</v>
       </c>
@@ -7704,7 +7703,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="14.4">
+    <row r="196" spans="1:9">
       <c r="A196" s="12">
         <v>43497</v>
       </c>
@@ -7733,7 +7732,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="14.4">
+    <row r="197" spans="1:9">
       <c r="A197" s="12">
         <v>43525</v>
       </c>
@@ -7762,7 +7761,7 @@
         <v>2.4051612903225807</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="14.4">
+    <row r="198" spans="1:9">
       <c r="A198" s="12">
         <v>43556</v>
       </c>
@@ -7791,7 +7790,7 @@
         <v>2.4236666666666666</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="14.4">
+    <row r="199" spans="1:9">
       <c r="A199" s="12">
         <v>43586</v>
       </c>
@@ -7820,7 +7819,7 @@
         <v>2.390967741935484</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="14.4">
+    <row r="200" spans="1:9">
       <c r="A200" s="12">
         <v>43617</v>
       </c>
@@ -7849,7 +7848,7 @@
         <v>2.3776666666666668</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="14.4">
+    <row r="201" spans="1:9">
       <c r="A201" s="12">
         <v>43647</v>
       </c>
@@ -7878,7 +7877,7 @@
         <v>2.4029032258064515</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="14.4">
+    <row r="202" spans="1:9">
       <c r="A202" s="12">
         <v>43678</v>
       </c>
@@ -7907,7 +7906,7 @@
         <v>2.1258064516129034</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="14.4">
+    <row r="203" spans="1:9">
       <c r="A203" s="12">
         <v>43709</v>
       </c>
@@ -7936,7 +7935,7 @@
         <v>2.0430000000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="14.4">
+    <row r="204" spans="1:9">
       <c r="A204" s="12">
         <v>43739</v>
       </c>
@@ -7965,7 +7964,7 @@
         <v>1.8296774193548386</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="14.4">
+    <row r="205" spans="1:9">
       <c r="A205" s="12">
         <v>43770</v>
       </c>
@@ -7994,7 +7993,7 @@
         <v>1.5533333333333332</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="14.4">
+    <row r="206" spans="1:9">
       <c r="A206" s="12">
         <v>43800</v>
       </c>
@@ -8023,7 +8022,7 @@
         <v>1.5509677419354839</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="14.4">
+    <row r="207" spans="1:9">
       <c r="A207" s="12">
         <v>43831</v>
       </c>
@@ -8052,7 +8051,7 @@
         <v>1.5478260869565219</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="14.4">
+    <row r="208" spans="1:9">
       <c r="A208" s="12">
         <v>43862</v>
       </c>
@@ -8081,7 +8080,7 @@
         <v>1.5855000000000004</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="14.4">
+    <row r="209" spans="1:9">
       <c r="A209" s="12">
         <v>43891</v>
       </c>
@@ -8110,7 +8109,7 @@
         <v>0.60954545454545439</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="14.4">
+    <row r="210" spans="1:9">
       <c r="A210" s="12">
         <v>43922</v>
       </c>
@@ -8139,7 +8138,7 @@
         <v>1.9090909090909096E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="14.4">
+    <row r="211" spans="1:9">
       <c r="A211" s="12">
         <v>43952</v>
       </c>
@@ -8168,7 +8167,7 @@
         <v>4.5238095238095258E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="14.4">
+    <row r="212" spans="1:9">
       <c r="A212" s="12">
         <v>43983</v>
       </c>
@@ -8197,7 +8196,7 @@
         <v>7.9090909090909114E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="14.4">
+    <row r="213" spans="1:9">
       <c r="A213" s="12">
         <v>44013</v>
       </c>
@@ -8226,7 +8225,7 @@
         <v>0.1056521739130435</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="14.4">
+    <row r="214" spans="1:9">
       <c r="A214" s="12">
         <v>44044</v>
       </c>
@@ -8255,7 +8254,7 @@
         <v>8.5714285714285743E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="14.4">
+    <row r="215" spans="1:9">
       <c r="A215" s="12">
         <v>44075</v>
       </c>
@@ -8284,7 +8283,7 @@
         <v>8.5909090909090935E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="14.4">
+    <row r="216" spans="1:9">
       <c r="A216" s="12">
         <v>44105</v>
       </c>
@@ -8313,7 +8312,7 @@
         <v>8.7272727272727293E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="14.4">
+    <row r="217" spans="1:9">
       <c r="A217" s="12">
         <v>44136</v>
       </c>
@@ -8342,7 +8341,7 @@
         <v>8.6666666666666697E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="14.4">
+    <row r="218" spans="1:9">
       <c r="A218" s="12">
         <v>44166</v>
       </c>
@@ -8371,7 +8370,7 @@
         <v>8.2173913043478292E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="14.4">
+    <row r="219" spans="1:9">
       <c r="A219" s="12">
         <v>44197</v>
       </c>
@@ -8400,7 +8399,7 @@
         <v>7.1428571428571438E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="14.4">
+    <row r="220" spans="1:9">
       <c r="A220" s="12">
         <v>44228</v>
       </c>
@@ -8429,7 +8428,7 @@
         <v>4.2000000000000016E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="14.4">
+    <row r="221" spans="1:9">
       <c r="A221" s="12">
         <v>44256</v>
       </c>
@@ -8458,7 +8457,7 @@
         <v>1.521739130434783E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="14.4">
+    <row r="222" spans="1:9">
       <c r="A222" s="12">
         <v>44287</v>
       </c>
@@ -8487,7 +8486,7 @@
         <v>1.0000000000000002E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="14.4">
+    <row r="223" spans="1:9">
       <c r="A223" s="12">
         <v>44317</v>
       </c>
@@ -8516,7 +8515,7 @@
         <v>1.0000000000000002E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="14.4">
+    <row r="224" spans="1:9">
       <c r="A224" s="12">
         <v>44348</v>
       </c>
@@ -8545,7 +8544,7 @@
         <v>2.8181818181818183E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="14.4">
+    <row r="225" spans="1:9">
       <c r="A225" s="12">
         <v>44378</v>
       </c>
@@ -8574,7 +8573,7 @@
         <v>5.0000000000000017E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="14.4">
+    <row r="226" spans="1:9">
       <c r="A226" s="12">
         <v>44409</v>
       </c>
@@ -8603,7 +8602,7 @@
         <v>5.0000000000000017E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="14.4">
+    <row r="227" spans="1:9">
       <c r="A227" s="12">
         <v>44440</v>
       </c>
@@ -8632,7 +8631,7 @@
         <v>5.0000000000000017E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="14.4">
+    <row r="228" spans="1:9">
       <c r="A228" s="12">
         <v>44470</v>
       </c>
@@ -8661,7 +8660,7 @@
         <v>4.6666666666666683E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="14.4">
+    <row r="229" spans="1:9">
       <c r="A229" s="12">
         <v>44501</v>
       </c>
@@ -8690,7 +8689,7 @@
         <v>5.0000000000000017E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="14.4">
+    <row r="230" spans="1:9">
       <c r="A230" s="12">
         <v>44531</v>
       </c>
@@ -8719,7 +8718,7 @@
         <v>4.9565217391304366E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="14.4">
+    <row r="231" spans="1:9">
       <c r="A231" s="12">
         <v>44562</v>
       </c>
@@ -9073,7 +9072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -9083,14 +9082,14 @@
       <selection pane="bottomRight" activeCell="B73" sqref="B73:E81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="9.109375" style="4"/>
-    <col min="3" max="3" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.140625" style="4"/>
+    <col min="3" max="3" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -9107,7 +9106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.4">
+    <row r="2" spans="1:5">
       <c r="A2" s="12">
         <v>37681</v>
       </c>
@@ -9128,7 +9127,7 @@
         <v>912.64535999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4">
+    <row r="3" spans="1:5">
       <c r="A3" s="12">
         <v>37773</v>
       </c>
@@ -9149,7 +9148,7 @@
         <v>914.34181000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.4">
+    <row r="4" spans="1:5">
       <c r="A4" s="12">
         <v>37865</v>
       </c>
@@ -9170,7 +9169,7 @@
         <v>915.50378000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.4">
+    <row r="5" spans="1:5">
       <c r="A5" s="12">
         <v>37956</v>
       </c>
@@ -9191,7 +9190,7 @@
         <v>913.52279999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.4">
+    <row r="6" spans="1:5">
       <c r="A6" s="12">
         <v>38047</v>
       </c>
@@ -9212,7 +9211,7 @@
         <v>918.41542000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.4">
+    <row r="7" spans="1:5">
       <c r="A7" s="12">
         <v>38139</v>
       </c>
@@ -9233,7 +9232,7 @@
         <v>918.44692000000009</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.4">
+    <row r="8" spans="1:5">
       <c r="A8" s="12">
         <v>38231</v>
       </c>
@@ -9254,7 +9253,7 @@
         <v>920.30457999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4">
+    <row r="9" spans="1:5">
       <c r="A9" s="12">
         <v>38322</v>
       </c>
@@ -9275,7 +9274,7 @@
         <v>922.38742999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4">
+    <row r="10" spans="1:5">
       <c r="A10" s="12">
         <v>38412</v>
       </c>
@@ -9296,7 +9295,7 @@
         <v>922.59095000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4">
+    <row r="11" spans="1:5">
       <c r="A11" s="12">
         <v>38504</v>
       </c>
@@ -9317,7 +9316,7 @@
         <v>928.02128000000016</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4">
+    <row r="12" spans="1:5">
       <c r="A12" s="12">
         <v>38596</v>
       </c>
@@ -9338,7 +9337,7 @@
         <v>932.39167999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.4">
+    <row r="13" spans="1:5">
       <c r="A13" s="12">
         <v>38687</v>
       </c>
@@ -9359,7 +9358,7 @@
         <v>938.88253999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.4">
+    <row r="14" spans="1:5">
       <c r="A14" s="12">
         <v>38777</v>
       </c>
@@ -9380,7 +9379,7 @@
         <v>945.36163999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.4">
+    <row r="15" spans="1:5">
       <c r="A15" s="12">
         <v>38869</v>
       </c>
@@ -9401,7 +9400,7 @@
         <v>945.54597000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.4">
+    <row r="16" spans="1:5">
       <c r="A16" s="12">
         <v>38961</v>
       </c>
@@ -9422,7 +9421,7 @@
         <v>948.28389000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.4">
+    <row r="17" spans="1:5">
       <c r="A17" s="12">
         <v>39052</v>
       </c>
@@ -9443,7 +9442,7 @@
         <v>954.78237000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.4">
+    <row r="18" spans="1:5">
       <c r="A18" s="12">
         <v>39142</v>
       </c>
@@ -9464,7 +9463,7 @@
         <v>958.65549999999985</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.4">
+    <row r="19" spans="1:5">
       <c r="A19" s="12">
         <v>39234</v>
       </c>
@@ -9485,7 +9484,7 @@
         <v>963.97585000000015</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.4">
+    <row r="20" spans="1:5">
       <c r="A20" s="12">
         <v>39326</v>
       </c>
@@ -9506,7 +9505,7 @@
         <v>971.75253999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.4">
+    <row r="21" spans="1:5">
       <c r="A21" s="12">
         <v>39417</v>
       </c>
@@ -9527,7 +9526,7 @@
         <v>977.44694000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.4">
+    <row r="22" spans="1:5">
       <c r="A22" s="12">
         <v>39508</v>
       </c>
@@ -9548,7 +9547,7 @@
         <v>984.39563999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.4">
+    <row r="23" spans="1:5">
       <c r="A23" s="12">
         <v>39600</v>
       </c>
@@ -9569,7 +9568,7 @@
         <v>992.39658999999983</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.4">
+    <row r="24" spans="1:5">
       <c r="A24" s="12">
         <v>39692</v>
       </c>
@@ -9590,7 +9589,7 @@
         <v>995.50304000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.4">
+    <row r="25" spans="1:5">
       <c r="A25" s="12">
         <v>39783</v>
       </c>
@@ -9611,7 +9610,7 @@
         <v>989.11162999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.4">
+    <row r="26" spans="1:5">
       <c r="A26" s="12">
         <v>39873</v>
       </c>
@@ -9632,7 +9631,7 @@
         <v>988.73986000000014</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.4">
+    <row r="27" spans="1:5">
       <c r="A27" s="12">
         <v>39965</v>
       </c>
@@ -9653,7 +9652,7 @@
         <v>980.98758999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.4">
+    <row r="28" spans="1:5">
       <c r="A28" s="12">
         <v>40057</v>
       </c>
@@ -9674,7 +9673,7 @@
         <v>989.84021000000007</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.4">
+    <row r="29" spans="1:5">
       <c r="A29" s="12">
         <v>40148</v>
       </c>
@@ -9695,7 +9694,7 @@
         <v>996.05292999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.4">
+    <row r="30" spans="1:5">
       <c r="A30" s="12">
         <v>40238</v>
       </c>
@@ -9716,7 +9715,7 @@
         <v>1003.5418</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14.4">
+    <row r="31" spans="1:5">
       <c r="A31" s="12">
         <v>40330</v>
       </c>
@@ -9737,7 +9736,7 @@
         <v>1009.2800000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.4">
+    <row r="32" spans="1:5">
       <c r="A32" s="12">
         <v>40422</v>
       </c>
@@ -9758,7 +9757,7 @@
         <v>1012.9341000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14.4">
+    <row r="33" spans="1:5">
       <c r="A33" s="12">
         <v>40513</v>
       </c>
@@ -9779,7 +9778,7 @@
         <v>1013.2241</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.4">
+    <row r="34" spans="1:5">
       <c r="A34" s="12">
         <v>40603</v>
       </c>
@@ -9800,7 +9799,7 @@
         <v>1012.1473</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.4">
+    <row r="35" spans="1:5">
       <c r="A35" s="12">
         <v>40695</v>
       </c>
@@ -9821,7 +9820,7 @@
         <v>1013.3316000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14.4">
+    <row r="36" spans="1:5">
       <c r="A36" s="12">
         <v>40787</v>
       </c>
@@ -9842,7 +9841,7 @@
         <v>1016.59</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14.4">
+    <row r="37" spans="1:5">
       <c r="A37" s="12">
         <v>40878</v>
       </c>
@@ -9863,7 +9862,7 @@
         <v>1021.7131000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14.4">
+    <row r="38" spans="1:5">
       <c r="A38" s="12">
         <v>40969</v>
       </c>
@@ -9884,7 +9883,7 @@
         <v>1026.8657000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14.4">
+    <row r="39" spans="1:5">
       <c r="A39" s="12">
         <v>41061</v>
       </c>
@@ -9905,7 +9904,7 @@
         <v>1029.0934999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14.4">
+    <row r="40" spans="1:5">
       <c r="A40" s="12">
         <v>41153</v>
       </c>
@@ -9926,7 +9925,7 @@
         <v>1032.6506999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14.4">
+    <row r="41" spans="1:5">
       <c r="A41" s="12">
         <v>41244</v>
       </c>
@@ -9947,7 +9946,7 @@
         <v>1035.9628</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14.4">
+    <row r="42" spans="1:5">
       <c r="A42" s="12">
         <v>41334</v>
       </c>
@@ -9968,7 +9967,7 @@
         <v>1038.2170000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.4">
+    <row r="43" spans="1:5">
       <c r="A43" s="12">
         <v>41426</v>
       </c>
@@ -9989,7 +9988,7 @@
         <v>1040.4938</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14.4">
+    <row r="44" spans="1:5">
       <c r="A44" s="12">
         <v>41518</v>
       </c>
@@ -10010,7 +10009,7 @@
         <v>1039.6533999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14.4">
+    <row r="45" spans="1:5">
       <c r="A45" s="12">
         <v>41609</v>
       </c>
@@ -10031,7 +10030,7 @@
         <v>1037.5036</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14.4">
+    <row r="46" spans="1:5">
       <c r="A46" s="12">
         <v>41699</v>
       </c>
@@ -10052,7 +10051,7 @@
         <v>1038.5954999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="14.4">
+    <row r="47" spans="1:5">
       <c r="A47" s="12">
         <v>41791</v>
       </c>
@@ -10073,7 +10072,7 @@
         <v>1038.3633</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="14.4">
+    <row r="48" spans="1:5">
       <c r="A48" s="12">
         <v>41883</v>
       </c>
@@ -10094,7 +10093,7 @@
         <v>1035.6059</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="14.4">
+    <row r="49" spans="1:5">
       <c r="A49" s="12">
         <v>41974</v>
       </c>
@@ -10115,7 +10114,7 @@
         <v>1033.9909</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="14.4">
+    <row r="50" spans="1:5">
       <c r="A50" s="12">
         <v>42064</v>
       </c>
@@ -10136,7 +10135,7 @@
         <v>1031.6428000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="14.4">
+    <row r="51" spans="1:5">
       <c r="A51" s="12">
         <v>42156</v>
       </c>
@@ -10157,7 +10156,7 @@
         <v>1030.6967</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="14.4">
+    <row r="52" spans="1:5">
       <c r="A52" s="12">
         <v>42248</v>
       </c>
@@ -10178,7 +10177,7 @@
         <v>1031.5496000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="14.4">
+    <row r="53" spans="1:5">
       <c r="A53" s="12">
         <v>42339</v>
       </c>
@@ -10199,7 +10198,7 @@
         <v>1032.3947000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="14.4">
+    <row r="54" spans="1:5">
       <c r="A54" s="12">
         <v>42430</v>
       </c>
@@ -10220,7 +10219,7 @@
         <v>1031.6875</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="14.4">
+    <row r="55" spans="1:5">
       <c r="A55" s="12">
         <v>42522</v>
       </c>
@@ -10241,7 +10240,7 @@
         <v>1028.6045999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="14.4">
+    <row r="56" spans="1:5">
       <c r="A56" s="12">
         <v>42614</v>
       </c>
@@ -10262,7 +10261,7 @@
         <v>1025.2514000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="14.4">
+    <row r="57" spans="1:5">
       <c r="A57" s="12">
         <v>42705</v>
       </c>
@@ -10283,7 +10282,7 @@
         <v>1025.2819999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="14.4">
+    <row r="58" spans="1:5">
       <c r="A58" s="12">
         <v>42795</v>
       </c>
@@ -10304,7 +10303,7 @@
         <v>1024.597</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="14.4">
+    <row r="59" spans="1:5">
       <c r="A59" s="12">
         <v>42887</v>
       </c>
@@ -10325,7 +10324,7 @@
         <v>1024.3348000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="14.4">
+    <row r="60" spans="1:5">
       <c r="A60" s="12">
         <v>42979</v>
       </c>
@@ -10346,7 +10345,7 @@
         <v>1029.809</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="14.4">
+    <row r="61" spans="1:5">
       <c r="A61" s="12">
         <v>43070</v>
       </c>
@@ -10367,7 +10366,7 @@
         <v>1029.1711</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="14.4">
+    <row r="62" spans="1:5">
       <c r="A62" s="12">
         <v>43160</v>
       </c>
@@ -10388,7 +10387,7 @@
         <v>1030.6365000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="14.4">
+    <row r="63" spans="1:5">
       <c r="A63" s="12">
         <v>43252</v>
       </c>
@@ -10409,7 +10408,7 @@
         <v>1031.4731999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="14.4">
+    <row r="64" spans="1:5">
       <c r="A64" s="12">
         <v>43344</v>
       </c>
@@ -10430,7 +10429,7 @@
         <v>1029.8424</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="14.4">
+    <row r="65" spans="1:5">
       <c r="A65" s="12">
         <v>43435</v>
       </c>
@@ -10451,7 +10450,7 @@
         <v>1034.2388000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="14.4">
+    <row r="66" spans="1:5">
       <c r="A66" s="12">
         <v>43525</v>
       </c>
@@ -10472,7 +10471,7 @@
         <v>1032.3507999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="14.4">
+    <row r="67" spans="1:5">
       <c r="A67" s="12">
         <v>43617</v>
       </c>
@@ -10493,7 +10492,7 @@
         <v>1036.5282</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="14.4">
+    <row r="68" spans="1:5">
       <c r="A68" s="12">
         <v>43709</v>
       </c>
@@ -10514,7 +10513,7 @@
         <v>1036.3321000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="14.4">
+    <row r="69" spans="1:5">
       <c r="A69" s="12">
         <v>43800</v>
       </c>
@@ -10535,7 +10534,7 @@
         <v>1034.4539</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="14.4">
+    <row r="70" spans="1:5">
       <c r="A70" s="12">
         <v>43891</v>
       </c>
@@ -10556,7 +10555,7 @@
         <v>1020.2476</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="14.4">
+    <row r="71" spans="1:5">
       <c r="A71" s="12">
         <v>43983</v>
       </c>
@@ -10577,7 +10576,7 @@
         <v>946.13013999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="14.4">
+    <row r="72" spans="1:5">
       <c r="A72" s="12">
         <v>44075</v>
       </c>
@@ -10598,7 +10597,7 @@
         <v>1024.9631999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="14.4">
+    <row r="73" spans="1:5">
       <c r="A73" s="12">
         <v>44166</v>
       </c>
@@ -10619,7 +10618,7 @@
         <v>1047.3866</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="14.4">
+    <row r="74" spans="1:5">
       <c r="A74" s="12">
         <v>44256</v>
       </c>
@@ -10640,7 +10639,7 @@
         <v>1048.7982999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="14.4">
+    <row r="75" spans="1:5">
       <c r="A75" s="12">
         <v>44348</v>
       </c>
@@ -10661,7 +10660,7 @@
         <v>1046.8904</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="14.4">
+    <row r="76" spans="1:5">
       <c r="A76" s="12">
         <v>44440</v>
       </c>
@@ -10682,7 +10681,7 @@
         <v>1047.2113999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="14.4">
+    <row r="77" spans="1:5">
       <c r="A77" s="12">
         <v>44531</v>
       </c>
@@ -10703,7 +10702,7 @@
         <v>1045.9003</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="14.4">
+    <row r="78" spans="1:5">
       <c r="A78" s="12">
         <v>44621</v>
       </c>
@@ -10724,7 +10723,7 @@
         <v>1047.3162</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="14.4">
+    <row r="79" spans="1:5">
       <c r="A79" s="12">
         <v>44713</v>
       </c>
@@ -10745,7 +10744,7 @@
         <v>1047.8004000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="14.4">
+    <row r="80" spans="1:5">
       <c r="A80" s="12">
         <v>44805</v>
       </c>
@@ -10766,7 +10765,7 @@
         <v>1047.9694999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="14.4">
+    <row r="81" spans="1:5">
       <c r="A81" s="12">
         <v>44896</v>
       </c>
@@ -10795,16 +10794,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8EC603-814D-4BA4-B0D4-A0933C8A354C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A211" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B215" sqref="B215:I239"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -10833,7 +10832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.4">
+    <row r="2" spans="1:9">
       <c r="A2" s="5">
         <v>37681</v>
       </c>
@@ -10870,7 +10869,7 @@
         <v>1.2500691244239632</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.4">
+    <row r="3" spans="1:9">
       <c r="A3" s="5">
         <v>37712</v>
       </c>
@@ -10907,7 +10906,7 @@
         <v>1.2576820276497696</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.4">
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>37742</v>
       </c>
@@ -10944,7 +10943,7 @@
         <v>1.2566451612903224</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.4">
+    <row r="5" spans="1:9">
       <c r="A5" s="5">
         <v>37773</v>
       </c>
@@ -10981,7 +10980,7 @@
         <v>1.2465663082437277</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.4">
+    <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>37803</v>
       </c>
@@ -11018,7 +11017,7 @@
         <v>1.1643297491039426</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.4">
+    <row r="7" spans="1:9">
       <c r="A7" s="5">
         <v>37834</v>
       </c>
@@ -11055,7 +11054,7 @@
         <v>1.0876630824372759</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.4">
+    <row r="8" spans="1:9">
       <c r="A8" s="5">
         <v>37865</v>
       </c>
@@ -11092,7 +11091,7 @@
         <v>1.0167741935483869</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.4">
+    <row r="9" spans="1:9">
       <c r="A9" s="5">
         <v>37895</v>
       </c>
@@ -11129,7 +11128,7 @@
         <v>1.0163440860215054</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.4">
+    <row r="10" spans="1:9">
       <c r="A10" s="5">
         <v>37926</v>
       </c>
@@ -11166,7 +11165,7 @@
         <v>1.0053333333333334</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.4">
+    <row r="11" spans="1:9">
       <c r="A11" s="5">
         <v>37956</v>
       </c>
@@ -11203,7 +11202,7 @@
         <v>0.99673118279569906</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.4">
+    <row r="12" spans="1:9">
       <c r="A12" s="5">
         <v>37987</v>
       </c>
@@ -11240,7 +11239,7 @@
         <v>0.99243010752688177</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.4">
+    <row r="13" spans="1:9">
       <c r="A13" s="5">
         <v>38018</v>
       </c>
@@ -11277,7 +11276,7 @@
         <v>0.99617723396366331</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.4">
+    <row r="14" spans="1:9">
       <c r="A14" s="5">
         <v>38047</v>
       </c>
@@ -11314,7 +11313,7 @@
         <v>1.0019836855765665</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.4">
+    <row r="15" spans="1:9">
       <c r="A15" s="5">
         <v>38078</v>
       </c>
@@ -11351,7 +11350,7 @@
         <v>1.0042847608453838</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.4">
+    <row r="16" spans="1:9">
       <c r="A16" s="5">
         <v>38108</v>
       </c>
@@ -11388,7 +11387,7 @@
         <v>1.0033763440860215</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.4">
+    <row r="17" spans="1:9">
       <c r="A17" s="5">
         <v>38139</v>
       </c>
@@ -11425,7 +11424,7 @@
         <v>1.011394265232975</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.4">
+    <row r="18" spans="1:9">
       <c r="A18" s="5">
         <v>38169</v>
       </c>
@@ -11462,7 +11461,7 @@
         <v>1.0979103942652328</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.4">
+    <row r="19" spans="1:9">
       <c r="A19" s="5">
         <v>38200</v>
       </c>
@@ -11499,7 +11498,7 @@
         <v>1.2395232974910397</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="14.4">
+    <row r="20" spans="1:9">
       <c r="A20" s="5">
         <v>38231</v>
       </c>
@@ -11536,7 +11535,7 @@
         <v>1.4326344086021507</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.4">
+    <row r="21" spans="1:9">
       <c r="A21" s="5">
         <v>38261</v>
       </c>
@@ -11573,7 +11572,7 @@
         <v>1.5984408602150537</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.4">
+    <row r="22" spans="1:9">
       <c r="A22" s="5">
         <v>38292</v>
       </c>
@@ -11610,7 +11609,7 @@
         <v>1.7659892473118279</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="14.4">
+    <row r="23" spans="1:9">
       <c r="A23" s="5">
         <v>38322</v>
       </c>
@@ -11647,7 +11646,7 @@
         <v>1.9496989247311829</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.4">
+    <row r="24" spans="1:9">
       <c r="A24" s="5">
         <v>38353</v>
       </c>
@@ -11684,7 +11683,7 @@
         <v>2.1224946236559141</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="14.4">
+    <row r="25" spans="1:9">
       <c r="A25" s="5">
         <v>38384</v>
       </c>
@@ -11721,7 +11720,7 @@
         <v>2.3124231950844858</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="14.4">
+    <row r="26" spans="1:9">
       <c r="A26" s="5">
         <v>38412</v>
       </c>
@@ -11758,7 +11757,7 @@
         <v>2.470057603686636</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="14.4">
+    <row r="27" spans="1:9">
       <c r="A27" s="5">
         <v>38443</v>
       </c>
@@ -11795,7 +11794,7 @@
         <v>2.6386059907834105</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="14.4">
+    <row r="28" spans="1:9">
       <c r="A28" s="5">
         <v>38473</v>
       </c>
@@ -11832,7 +11831,7 @@
         <v>2.8055376344086018</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="14.4">
+    <row r="29" spans="1:9">
       <c r="A29" s="5">
         <v>38504</v>
       </c>
@@ -11869,7 +11868,7 @@
         <v>2.9410824372759854</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.4">
+    <row r="30" spans="1:9">
       <c r="A30" s="5">
         <v>38534</v>
       </c>
@@ -11906,7 +11905,7 @@
         <v>3.100275985663083</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="14.4">
+    <row r="31" spans="1:9">
       <c r="A31" s="5">
         <v>38565</v>
       </c>
@@ -11943,7 +11942,7 @@
         <v>3.2659749103942652</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="14.4">
+    <row r="32" spans="1:9">
       <c r="A32" s="5">
         <v>38596</v>
       </c>
@@ -11980,7 +11979,7 @@
         <v>3.4617526881720431</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="14.4">
+    <row r="33" spans="1:9">
       <c r="A33" s="5">
         <v>38626</v>
       </c>
@@ -12017,7 +12016,7 @@
         <v>3.6340107526881718</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="14.4">
+    <row r="34" spans="1:9">
       <c r="A34" s="5">
         <v>38657</v>
       </c>
@@ -12054,7 +12053,7 @@
         <v>3.8004516129032258</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="14.4">
+    <row r="35" spans="1:9">
       <c r="A35" s="5">
         <v>38687</v>
       </c>
@@ -12091,7 +12090,7 @@
         <v>3.9784838709677417</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.4">
+    <row r="36" spans="1:9">
       <c r="A36" s="5">
         <v>38718</v>
       </c>
@@ -12128,7 +12127,7 @@
         <v>4.147086021505376</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14.4">
+    <row r="37" spans="1:9">
       <c r="A37" s="5">
         <v>38749</v>
       </c>
@@ -12165,7 +12164,7 @@
         <v>4.3112288786482331</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.4">
+    <row r="38" spans="1:9">
       <c r="A38" s="5">
         <v>38777</v>
       </c>
@@ -12202,7 +12201,7 @@
         <v>4.4553149001536099</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="14.4">
+    <row r="39" spans="1:9">
       <c r="A39" s="5">
         <v>38808</v>
       </c>
@@ -12239,7 +12238,7 @@
         <v>4.6237055811571937</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="14.4">
+    <row r="40" spans="1:9">
       <c r="A40" s="5">
         <v>38838</v>
       </c>
@@ -12276,7 +12275,7 @@
         <v>4.773336917562724</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="14.4">
+    <row r="41" spans="1:9">
       <c r="A41" s="5">
         <v>38869</v>
       </c>
@@ -12313,7 +12312,7 @@
         <v>4.9072186379928313</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="14.4">
+    <row r="42" spans="1:9">
       <c r="A42" s="5">
         <v>38899</v>
       </c>
@@ -12350,7 +12349,7 @@
         <v>5.055494623655914</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="14.4">
+    <row r="43" spans="1:9">
       <c r="A43" s="5">
         <v>38930</v>
       </c>
@@ -12387,7 +12386,7 @@
         <v>5.1575376344086017</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="14.4">
+    <row r="44" spans="1:9">
       <c r="A44" s="5">
         <v>38961</v>
       </c>
@@ -12424,7 +12423,7 @@
         <v>5.2454265232974908</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="14.4">
+    <row r="45" spans="1:9">
       <c r="A45" s="5">
         <v>38991</v>
       </c>
@@ -12461,7 +12460,7 @@
         <v>5.2487598566308238</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="14.4">
+    <row r="46" spans="1:9">
       <c r="A46" s="5">
         <v>39022</v>
       </c>
@@ -12498,7 +12497,7 @@
         <v>5.2484982078853042</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="14.4">
+    <row r="47" spans="1:9">
       <c r="A47" s="5">
         <v>39052</v>
       </c>
@@ -12535,7 +12534,7 @@
         <v>5.2429641577060933</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="14.4">
+    <row r="48" spans="1:9">
       <c r="A48" s="5">
         <v>39083</v>
       </c>
@@ -12572,7 +12571,7 @@
         <v>5.2440394265232975</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="14.4">
+    <row r="49" spans="1:9">
       <c r="A49" s="5">
         <v>39114</v>
       </c>
@@ -12609,7 +12608,7 @@
         <v>5.2484600614439323</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="14.4">
+    <row r="50" spans="1:9">
       <c r="A50" s="5">
         <v>39142</v>
       </c>
@@ -12646,7 +12645,7 @@
         <v>5.2546966205837178</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="14.4">
+    <row r="51" spans="1:9">
       <c r="A51" s="5">
         <v>39173</v>
       </c>
@@ -12683,7 +12682,7 @@
         <v>5.2551231438812076</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="14.4">
+    <row r="52" spans="1:9">
       <c r="A52" s="5">
         <v>39203</v>
       </c>
@@ -12720,7 +12719,7 @@
         <v>5.2533297491039432</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="14.4">
+    <row r="53" spans="1:9">
       <c r="A53" s="5">
         <v>39234</v>
       </c>
@@ -12757,7 +12756,7 @@
         <v>5.2524050179211468</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="14.4">
+    <row r="54" spans="1:9">
       <c r="A54" s="5">
         <v>39264</v>
       </c>
@@ -12794,7 +12793,7 @@
         <v>5.2553118279569899</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="14.4">
+    <row r="55" spans="1:9">
       <c r="A55" s="5">
         <v>39295</v>
       </c>
@@ -12831,7 +12830,7 @@
         <v>5.1782150537634415</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="14.4">
+    <row r="56" spans="1:9">
       <c r="A56" s="5">
         <v>39326</v>
       </c>
@@ -12868,7 +12867,7 @@
         <v>5.0728817204301073</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="14.4">
+    <row r="57" spans="1:9">
       <c r="A57" s="5">
         <v>39356</v>
       </c>
@@ -12905,7 +12904,7 @@
         <v>4.9052473118279574</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="14.4">
+    <row r="58" spans="1:9">
       <c r="A58" s="5">
         <v>39387</v>
       </c>
@@ -12942,7 +12941,7 @@
         <v>4.7267168458781361</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="14.4">
+    <row r="59" spans="1:9">
       <c r="A59" s="5">
         <v>39417</v>
       </c>
@@ -12979,7 +12978,7 @@
         <v>4.4955555555555557</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="14.4">
+    <row r="60" spans="1:9">
       <c r="A60" s="5">
         <v>39448</v>
       </c>
@@ -13016,7 +13015,7 @@
         <v>4.2238351254480291</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="14.4">
+    <row r="61" spans="1:9">
       <c r="A61" s="5">
         <v>39479</v>
       </c>
@@ -13053,7 +13052,7 @@
         <v>3.7218427882832774</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="14.4">
+    <row r="62" spans="1:9">
       <c r="A62" s="5">
         <v>39508</v>
       </c>
@@ -13090,7 +13089,7 @@
         <v>3.1771116054875788</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="14.4">
+    <row r="63" spans="1:9">
       <c r="A63" s="5">
         <v>39539</v>
       </c>
@@ -13127,7 +13126,7 @@
         <v>2.6231151897169696</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="14.4">
+    <row r="64" spans="1:9">
       <c r="A64" s="5">
         <v>39569</v>
       </c>
@@ -13164,7 +13163,7 @@
         <v>2.2890143369175626</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="14.4">
+    <row r="65" spans="1:9">
       <c r="A65" s="5">
         <v>39600</v>
       </c>
@@ -13201,7 +13200,7 @@
         <v>2.0859068100358424</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="14.4">
+    <row r="66" spans="1:9">
       <c r="A66" s="5">
         <v>39630</v>
       </c>
@@ -13238,7 +13237,7 @@
         <v>1.9963548387096772</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="14.4">
+    <row r="67" spans="1:9">
       <c r="A67" s="5">
         <v>39661</v>
       </c>
@@ -13275,7 +13274,7 @@
         <v>2.0023763440860214</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="14.4">
+    <row r="68" spans="1:9">
       <c r="A68" s="5">
         <v>39692</v>
       </c>
@@ -13312,7 +13311,7 @@
         <v>1.9392652329749103</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="14.4">
+    <row r="69" spans="1:9">
       <c r="A69" s="5">
         <v>39722</v>
       </c>
@@ -13349,7 +13348,7 @@
         <v>1.5924910394265233</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="14.4">
+    <row r="70" spans="1:9">
       <c r="A70" s="5">
         <v>39753</v>
       </c>
@@ -13386,7 +13385,7 @@
         <v>1.0562293906810036</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="14.4">
+    <row r="71" spans="1:9">
       <c r="A71" s="5">
         <v>39783</v>
       </c>
@@ -13423,7 +13422,7 @@
         <v>0.50406093189964152</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="14.4">
+    <row r="72" spans="1:9">
       <c r="A72" s="5">
         <v>39814</v>
       </c>
@@ -13460,7 +13459,7 @@
         <v>0.23234050179211471</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="14.4">
+    <row r="73" spans="1:9">
       <c r="A73" s="5">
         <v>39845</v>
       </c>
@@ -13497,7 +13496,7 @@
         <v>0.17716589861751153</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="14.4">
+    <row r="74" spans="1:9">
       <c r="A74" s="5">
         <v>39873</v>
       </c>
@@ -13534,7 +13533,7 @@
         <v>0.18566052227342553</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="14.4">
+    <row r="75" spans="1:9">
       <c r="A75" s="5">
         <v>39904</v>
       </c>
@@ -13571,7 +13570,7 @@
         <v>0.18437378392217099</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="14.4">
+    <row r="76" spans="1:9">
       <c r="A76" s="5">
         <v>39934</v>
       </c>
@@ -13608,7 +13607,7 @@
         <v>0.16946594982078853</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="14.4">
+    <row r="77" spans="1:9">
       <c r="A77" s="5">
         <v>39965</v>
       </c>
@@ -13645,7 +13644,7 @@
         <v>0.17802867383512547</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="14.4">
+    <row r="78" spans="1:9">
       <c r="A78" s="5">
         <v>39995</v>
       </c>
@@ -13682,7 +13681,7 @@
         <v>0.17985304659498205</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="14.4">
+    <row r="79" spans="1:9">
       <c r="A79" s="5">
         <v>40026</v>
       </c>
@@ -13719,7 +13718,7 @@
         <v>0.17415412186379928</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="14.4">
+    <row r="80" spans="1:9">
       <c r="A80" s="5">
         <v>40057</v>
       </c>
@@ -13756,7 +13755,7 @@
         <v>0.15426523297491038</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="14.4">
+    <row r="81" spans="1:9">
       <c r="A81" s="5">
         <v>40087</v>
       </c>
@@ -13793,7 +13792,7 @@
         <v>0.14168458781362006</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="14.4">
+    <row r="82" spans="1:9">
       <c r="A82" s="5">
         <v>40118</v>
       </c>
@@ -13830,7 +13829,7 @@
         <v>0.12791039426523296</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="14.4">
+    <row r="83" spans="1:9">
       <c r="A83" s="5">
         <v>40148</v>
       </c>
@@ -13867,7 +13866,7 @@
         <v>0.11837634408602149</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="14.4">
+    <row r="84" spans="1:9">
       <c r="A84" s="5">
         <v>40179</v>
       </c>
@@ -13904,7 +13903,7 @@
         <v>0.11568817204301074</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="14.4">
+    <row r="85" spans="1:9">
       <c r="A85" s="5">
         <v>40210</v>
       </c>
@@ -13941,7 +13940,7 @@
         <v>0.11816436251920122</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="14.4">
+    <row r="86" spans="1:9">
       <c r="A86" s="5">
         <v>40238</v>
       </c>
@@ -13978,7 +13977,7 @@
         <v>0.13364823348694319</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="14.4">
+    <row r="87" spans="1:9">
       <c r="A87" s="5">
         <v>40269</v>
       </c>
@@ -14015,7 +14014,7 @@
         <v>0.1630926779313876</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="14.4">
+    <row r="88" spans="1:9">
       <c r="A88" s="5">
         <v>40299</v>
       </c>
@@ -14052,7 +14051,7 @@
         <v>0.18783154121863799</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="14.4">
+    <row r="89" spans="1:9">
       <c r="A89" s="5">
         <v>40330</v>
       </c>
@@ -14089,7 +14088,7 @@
         <v>0.19188172043010754</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="14.4">
+    <row r="90" spans="1:9">
       <c r="A90" s="5">
         <v>40360</v>
       </c>
@@ -14126,7 +14125,7 @@
         <v>0.18663082437275988</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="14.4">
+    <row r="91" spans="1:9">
       <c r="A91" s="5">
         <v>40391</v>
       </c>
@@ -14163,7 +14162,7 @@
         <v>0.18286738351254481</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="14.4">
+    <row r="92" spans="1:9">
       <c r="A92" s="5">
         <v>40422</v>
       </c>
@@ -14200,7 +14199,7 @@
         <v>0.18886738351254481</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="14.4">
+    <row r="93" spans="1:9">
       <c r="A93" s="5">
         <v>40452</v>
       </c>
@@ -14237,7 +14236,7 @@
         <v>0.19177060931899639</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="14.4">
+    <row r="94" spans="1:9">
       <c r="A94" s="5">
         <v>40483</v>
       </c>
@@ -14274,7 +14273,7 @@
         <v>0.19343010752688172</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="14.4">
+    <row r="95" spans="1:9">
       <c r="A95" s="5">
         <v>40513</v>
       </c>
@@ -14311,7 +14310,7 @@
         <v>0.18961648745519713</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="14.4">
+    <row r="96" spans="1:9">
       <c r="A96" s="5">
         <v>40544</v>
       </c>
@@ -14348,7 +14347,7 @@
         <v>0.18198207885304662</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="14.4">
+    <row r="97" spans="1:9">
       <c r="A97" s="5">
         <v>40575</v>
       </c>
@@ -14385,7 +14384,7 @@
         <v>0.16946620583717356</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="14.4">
+    <row r="98" spans="1:9">
       <c r="A98" s="5">
         <v>40603</v>
       </c>
@@ -14422,7 +14421,7 @@
         <v>0.15462749615975421</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="14.4">
+    <row r="99" spans="1:9">
       <c r="A99" s="5">
         <v>40634</v>
       </c>
@@ -14459,7 +14458,7 @@
         <v>0.13116513056835635</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="14.4">
+    <row r="100" spans="1:9">
       <c r="A100" s="5">
         <v>40664</v>
       </c>
@@ -14496,7 +14495,7 @@
         <v>0.11019354838709677</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="14.4">
+    <row r="101" spans="1:9">
       <c r="A101" s="5">
         <v>40695</v>
       </c>
@@ -14533,7 +14532,7 @@
         <v>9.4623655913978491E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="14.4">
+    <row r="102" spans="1:9">
       <c r="A102" s="5">
         <v>40725</v>
       </c>
@@ -14570,7 +14569,7 @@
         <v>8.5612903225806447E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="14.4">
+    <row r="103" spans="1:9">
       <c r="A103" s="5">
         <v>40756</v>
       </c>
@@ -14607,7 +14606,7 @@
         <v>8.6258064516129038E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="14.4">
+    <row r="104" spans="1:9">
       <c r="A104" s="5">
         <v>40787</v>
       </c>
@@ -14644,7 +14643,7 @@
         <v>8.3591397849462359E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="14.4">
+    <row r="105" spans="1:9">
       <c r="A105" s="5">
         <v>40817</v>
       </c>
@@ -14681,7 +14680,7 @@
         <v>8.3483870967741944E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="14.4">
+    <row r="106" spans="1:9">
       <c r="A106" s="5">
         <v>40848</v>
       </c>
@@ -14718,7 +14717,7 @@
         <v>7.8548387096774197E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="14.4">
+    <row r="107" spans="1:9">
       <c r="A107" s="5">
         <v>40878</v>
       </c>
@@ -14755,7 +14754,7 @@
         <v>7.4419354838709664E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="14.4">
+    <row r="108" spans="1:9">
       <c r="A108" s="5">
         <v>40909</v>
       </c>
@@ -14792,7 +14791,7 @@
         <v>7.8182795698924737E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="14.4">
+    <row r="109" spans="1:9">
       <c r="A109" s="5">
         <v>40940</v>
       </c>
@@ -14829,7 +14828,7 @@
         <v>8.5780496848350027E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="14.4">
+    <row r="110" spans="1:9">
       <c r="A110" s="5">
         <v>40969</v>
       </c>
@@ -14866,7 +14865,7 @@
         <v>0.10416759362254358</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="14.4">
+    <row r="111" spans="1:9">
       <c r="A111" s="5">
         <v>41000</v>
       </c>
@@ -14903,7 +14902,7 @@
         <v>0.12330021010999877</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="14.4">
+    <row r="112" spans="1:9">
       <c r="A112" s="5">
         <v>41030</v>
       </c>
@@ -14940,7 +14939,7 @@
         <v>0.14063799283154121</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="14.4">
+    <row r="113" spans="1:9">
       <c r="A113" s="5">
         <v>41061</v>
       </c>
@@ -14977,7 +14976,7 @@
         <v>0.15226881720430108</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="14.4">
+    <row r="114" spans="1:9">
       <c r="A114" s="5">
         <v>41091</v>
       </c>
@@ -15014,7 +15013,7 @@
         <v>0.15797491039426523</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="14.4">
+    <row r="115" spans="1:9">
       <c r="A115" s="5">
         <v>41122</v>
       </c>
@@ -15051,7 +15050,7 @@
         <v>0.15012544802867384</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="14.4">
+    <row r="116" spans="1:9">
       <c r="A116" s="5">
         <v>41153</v>
       </c>
@@ -15088,7 +15087,7 @@
         <v>0.14434767025089604</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="14.4">
+    <row r="117" spans="1:9">
       <c r="A117" s="5">
         <v>41183</v>
       </c>
@@ -15125,7 +15124,7 @@
         <v>0.14499283154121864</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="14.4">
+    <row r="118" spans="1:9">
       <c r="A118" s="5">
         <v>41214</v>
       </c>
@@ -15162,7 +15161,7 @@
         <v>0.15446236559139787</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="14.4">
+    <row r="119" spans="1:9">
       <c r="A119" s="5">
         <v>41244</v>
       </c>
@@ -15199,7 +15198,7 @@
         <v>0.16118996415770612</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="14.4">
+    <row r="120" spans="1:9">
       <c r="A120" s="5">
         <v>41275</v>
       </c>
@@ -15236,7 +15235,7 @@
         <v>0.155921146953405</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="14.4">
+    <row r="121" spans="1:9">
       <c r="A121" s="5">
         <v>41306</v>
       </c>
@@ -15273,7 +15272,7 @@
         <v>0.15069892473118282</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="14.4">
+    <row r="122" spans="1:9">
       <c r="A122" s="5">
         <v>41334</v>
       </c>
@@ -15310,7 +15309,7 @@
         <v>0.14370967741935484</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="14.4">
+    <row r="123" spans="1:9">
       <c r="A123" s="5">
         <v>41365</v>
       </c>
@@ -15347,7 +15346,7 @@
         <v>0.14451612903225808</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="14.4">
+    <row r="124" spans="1:9">
       <c r="A124" s="5">
         <v>41395</v>
       </c>
@@ -15384,7 +15383,7 @@
         <v>0.13252688172043012</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="14.4">
+    <row r="125" spans="1:9">
       <c r="A125" s="5">
         <v>41426</v>
       </c>
@@ -15421,7 +15420,7 @@
         <v>0.11589964157706094</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="14.4">
+    <row r="126" spans="1:9">
       <c r="A126" s="5">
         <v>41456</v>
       </c>
@@ -15458,7 +15457,7 @@
         <v>9.8426523297491034E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="14.4">
+    <row r="127" spans="1:9">
       <c r="A127" s="5">
         <v>41487</v>
       </c>
@@ -15495,7 +15494,7 @@
         <v>8.9716845878136206E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="14.4">
+    <row r="128" spans="1:9">
       <c r="A128" s="5">
         <v>41518</v>
       </c>
@@ -15532,7 +15531,7 @@
         <v>8.5161290322580643E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="14.4">
+    <row r="129" spans="1:9">
       <c r="A129" s="5">
         <v>41548</v>
       </c>
@@ -15569,7 +15568,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="14.4">
+    <row r="130" spans="1:9">
       <c r="A130" s="5">
         <v>41579</v>
       </c>
@@ -15606,7 +15605,7 @@
         <v>8.3810035842293906E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="14.4">
+    <row r="131" spans="1:9">
       <c r="A131" s="5">
         <v>41609</v>
       </c>
@@ -15643,7 +15642,7 @@
         <v>8.5530465949820778E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="14.4">
+    <row r="132" spans="1:9">
       <c r="A132" s="5">
         <v>41640</v>
       </c>
@@ -15680,7 +15679,7 @@
         <v>8.036917562724015E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="14.4">
+    <row r="133" spans="1:9">
       <c r="A133" s="5">
         <v>41671</v>
       </c>
@@ -15717,7 +15716,7 @@
         <v>7.4400921658986166E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="14.4">
+    <row r="134" spans="1:9">
       <c r="A134" s="5">
         <v>41699</v>
       </c>
@@ -15754,7 +15753,7 @@
         <v>7.2035330261136718E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="14.4">
+    <row r="135" spans="1:9">
       <c r="A135" s="5">
         <v>41730</v>
       </c>
@@ -15791,7 +15790,7 @@
         <v>7.8275473630312342E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="14.4">
+    <row r="136" spans="1:9">
       <c r="A136" s="5">
         <v>41760</v>
       </c>
@@ -15828,7 +15827,7 @@
         <v>8.5164874551971317E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="14.4">
+    <row r="137" spans="1:9">
       <c r="A137" s="5">
         <v>41791</v>
       </c>
@@ -15865,7 +15864,7 @@
         <v>9.1032258064516133E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="14.4">
+    <row r="138" spans="1:9">
       <c r="A138" s="5">
         <v>41821</v>
       </c>
@@ -15902,7 +15901,7 @@
         <v>9.1243727598566318E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="14.4">
+    <row r="139" spans="1:9">
       <c r="A139" s="5">
         <v>41852</v>
       </c>
@@ -15939,7 +15938,7 @@
         <v>9.1566308243727593E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="14.4">
+    <row r="140" spans="1:9">
       <c r="A140" s="5">
         <v>41883</v>
       </c>
@@ -15976,7 +15975,7 @@
         <v>8.9121863799283149E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="14.4">
+    <row r="141" spans="1:9">
       <c r="A141" s="5">
         <v>41913</v>
       </c>
@@ -16013,7 +16012,7 @@
         <v>8.8476702508960572E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="14.4">
+    <row r="142" spans="1:9">
       <c r="A142" s="5">
         <v>41944</v>
       </c>
@@ -16050,7 +16049,7 @@
         <v>8.9788530465949812E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="14.4">
+    <row r="143" spans="1:9">
       <c r="A143" s="5">
         <v>41974</v>
       </c>
@@ -16087,7 +16086,7 @@
         <v>0.1012043010752688</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="14.4">
+    <row r="144" spans="1:9">
       <c r="A144" s="5">
         <v>42005</v>
       </c>
@@ -16124,7 +16123,7 @@
         <v>0.10980645161290321</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="14.4">
+    <row r="145" spans="1:9">
       <c r="A145" s="5">
         <v>42036</v>
       </c>
@@ -16161,7 +16160,7 @@
         <v>0.11604454685099846</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="14.4">
+    <row r="146" spans="1:9">
       <c r="A146" s="5">
         <v>42064</v>
       </c>
@@ -16198,7 +16197,7 @@
         <v>0.11281874039938555</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="14.4">
+    <row r="147" spans="1:9">
       <c r="A147" s="5">
         <v>42095</v>
       </c>
@@ -16235,7 +16234,7 @@
         <v>0.116094726062468</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="14.4">
+    <row r="148" spans="1:9">
       <c r="A148" s="5">
         <v>42125</v>
       </c>
@@ -16272,7 +16271,7 @@
         <v>0.12026523297491039</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="14.4">
+    <row r="149" spans="1:9">
       <c r="A149" s="5">
         <v>42156</v>
       </c>
@@ -16309,7 +16308,7 @@
         <v>0.12563082437275985</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="14.4">
+    <row r="150" spans="1:9">
       <c r="A150" s="5">
         <v>42186</v>
       </c>
@@ -16346,7 +16345,7 @@
         <v>0.12751612903225806</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="14.4">
+    <row r="151" spans="1:9">
       <c r="A151" s="5">
         <v>42217</v>
       </c>
@@ -16383,7 +16382,7 @@
         <v>0.13246236559139785</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="14.4">
+    <row r="152" spans="1:9">
       <c r="A152" s="5">
         <v>42248</v>
       </c>
@@ -16420,7 +16419,7 @@
         <v>0.13479569892473117</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="14.4">
+    <row r="153" spans="1:9">
       <c r="A153" s="5">
         <v>42278</v>
       </c>
@@ -16457,7 +16456,7 @@
         <v>0.13253763440860214</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="14.4">
+    <row r="154" spans="1:9">
       <c r="A154" s="5">
         <v>42309</v>
       </c>
@@ -16494,7 +16493,7 @@
         <v>0.1257383512544803</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="14.4">
+    <row r="155" spans="1:9">
       <c r="A155" s="5">
         <v>42339</v>
       </c>
@@ -16531,7 +16530,7 @@
         <v>0.16062007168458781</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="14.4">
+    <row r="156" spans="1:9">
       <c r="A156" s="5">
         <v>42370</v>
       </c>
@@ -16568,7 +16567,7 @@
         <v>0.23373835125448028</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="14.4">
+    <row r="157" spans="1:9">
       <c r="A157" s="5">
         <v>42401</v>
       </c>
@@ -16605,7 +16604,7 @@
         <v>0.31957360029662585</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="14.4">
+    <row r="158" spans="1:9">
       <c r="A158" s="5">
         <v>42430</v>
       </c>
@@ -16642,7 +16641,7 @@
         <v>0.36011123470522804</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="14.4">
+    <row r="159" spans="1:9">
       <c r="A159" s="5">
         <v>42461</v>
       </c>
@@ -16679,7 +16678,7 @@
         <v>0.36758793721418859</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="14.4">
+    <row r="160" spans="1:9">
       <c r="A160" s="5">
         <v>42491</v>
       </c>
@@ -16716,7 +16715,7 @@
         <v>0.36425089605734767</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="14.4">
+    <row r="161" spans="1:9">
       <c r="A161" s="5">
         <v>42522</v>
       </c>
@@ -16753,7 +16752,7 @@
         <v>0.36938709677419351</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="14.4">
+    <row r="162" spans="1:9">
       <c r="A162" s="5">
         <v>42552</v>
       </c>
@@ -16790,7 +16789,7 @@
         <v>0.37814695340501792</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="14.4">
+    <row r="163" spans="1:9">
       <c r="A163" s="5">
         <v>42583</v>
       </c>
@@ -16827,7 +16826,7 @@
         <v>0.38868458781362003</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="14.4">
+    <row r="164" spans="1:9">
       <c r="A164" s="5">
         <v>42614</v>
       </c>
@@ -16864,7 +16863,7 @@
         <v>0.39490681003584233</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="14.4">
+    <row r="165" spans="1:9">
       <c r="A165" s="5">
         <v>42644</v>
       </c>
@@ -16901,7 +16900,7 @@
         <v>0.39651971326164875</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="14.4">
+    <row r="166" spans="1:9">
       <c r="A166" s="5">
         <v>42675</v>
       </c>
@@ -16938,7 +16937,7 @@
         <v>0.39981720430107526</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="14.4">
+    <row r="167" spans="1:9">
       <c r="A167" s="5">
         <v>42705</v>
       </c>
@@ -16975,7 +16974,7 @@
         <v>0.44770609318996418</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="14.4">
+    <row r="168" spans="1:9">
       <c r="A168" s="5">
         <v>42736</v>
       </c>
@@ -17012,7 +17011,7 @@
         <v>0.53211469534050182</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="14.4">
+    <row r="169" spans="1:9">
       <c r="A169" s="5">
         <v>42767</v>
       </c>
@@ -17049,7 +17048,7 @@
         <v>0.61548771121351764</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="14.4">
+    <row r="170" spans="1:9">
       <c r="A170" s="5">
         <v>42795</v>
       </c>
@@ -17086,7 +17085,7 @@
         <v>0.6975307219662058</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="14.4">
+    <row r="171" spans="1:9">
       <c r="A171" s="5">
         <v>42826</v>
       </c>
@@ -17123,7 +17122,7 @@
         <v>0.77963824884792621</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="14.4">
+    <row r="172" spans="1:9">
       <c r="A172" s="5">
         <v>42856</v>
       </c>
@@ -17160,7 +17159,7 @@
         <v>0.86318279569892464</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="14.4">
+    <row r="173" spans="1:9">
       <c r="A173" s="5">
         <v>42887</v>
       </c>
@@ -17197,7 +17196,7 @@
         <v>0.94780645161290333</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="14.4">
+    <row r="174" spans="1:9">
       <c r="A174" s="5">
         <v>42917</v>
       </c>
@@ -17234,7 +17233,7 @@
         <v>1.0326881720430108</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="14.4">
+    <row r="175" spans="1:9">
       <c r="A175" s="5">
         <v>42948</v>
       </c>
@@ -17271,7 +17270,7 @@
         <v>1.1159139784946237</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="14.4">
+    <row r="176" spans="1:9">
       <c r="A176" s="5">
         <v>42979</v>
       </c>
@@ -17308,7 +17307,7 @@
         <v>1.1536917562724014</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="14.4">
+    <row r="177" spans="1:9">
       <c r="A177" s="5">
         <v>43009</v>
       </c>
@@ -17345,7 +17344,7 @@
         <v>1.1547670250896058</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="14.4">
+    <row r="178" spans="1:9">
       <c r="A178" s="5">
         <v>43040</v>
       </c>
@@ -17382,7 +17381,7 @@
         <v>1.1547347670250896</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="14.4">
+    <row r="179" spans="1:9">
       <c r="A179" s="5">
         <v>43070</v>
       </c>
@@ -17419,7 +17418,7 @@
         <v>1.2041612903225807</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="14.4">
+    <row r="180" spans="1:9">
       <c r="A180" s="5">
         <v>43101</v>
       </c>
@@ -17456,7 +17455,7 @@
         <v>1.2910430107526882</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="14.4">
+    <row r="181" spans="1:9">
       <c r="A181" s="5">
         <v>43132</v>
       </c>
@@ -17493,7 +17492,7 @@
         <v>1.3778763440860216</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="14.4">
+    <row r="182" spans="1:9">
       <c r="A182" s="5">
         <v>43160</v>
       </c>
@@ -17530,7 +17529,7 @@
         <v>1.4460483870967742</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="14.4">
+    <row r="183" spans="1:9">
       <c r="A183" s="5">
         <v>43191</v>
       </c>
@@ -17567,7 +17566,7 @@
         <v>1.5386541218637992</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="14.4">
+    <row r="184" spans="1:9">
       <c r="A184" s="5">
         <v>43221</v>
       </c>
@@ -17604,7 +17603,7 @@
         <v>1.6328207885304657</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="14.4">
+    <row r="185" spans="1:9">
       <c r="A185" s="5">
         <v>43252</v>
       </c>
@@ -17641,7 +17640,7 @@
         <v>1.7373333333333332</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="14.4">
+    <row r="186" spans="1:9">
       <c r="A186" s="5">
         <v>43282</v>
       </c>
@@ -17678,7 +17677,7 @@
         <v>1.8098888888888889</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="14.4">
+    <row r="187" spans="1:9">
       <c r="A187" s="5">
         <v>43313</v>
       </c>
@@ -17715,7 +17714,7 @@
         <v>1.8815017921146955</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="14.4">
+    <row r="188" spans="1:9">
       <c r="A188" s="5">
         <v>43344</v>
       </c>
@@ -17752,7 +17751,7 @@
         <v>1.9265017921146954</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="14.4">
+    <row r="189" spans="1:9">
       <c r="A189" s="5">
         <v>43374</v>
       </c>
@@ -17789,7 +17788,7 @@
         <v>2.0190824372759857</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="14.4">
+    <row r="190" spans="1:9">
       <c r="A190" s="5">
         <v>43405</v>
       </c>
@@ -17826,7 +17825,7 @@
         <v>2.1133584229390681</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="14.4">
+    <row r="191" spans="1:9">
       <c r="A191" s="5">
         <v>43435</v>
       </c>
@@ -17863,7 +17862,7 @@
         <v>2.2198673835125446</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="14.4">
+    <row r="192" spans="1:9">
       <c r="A192" s="5">
         <v>43466</v>
       </c>
@@ -17900,7 +17899,7 @@
         <v>2.2906200716845877</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="14.4">
+    <row r="193" spans="1:9">
       <c r="A193" s="5">
         <v>43497</v>
       </c>
@@ -17937,7 +17936,7 @@
         <v>2.3580645161290321</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="14.4">
+    <row r="194" spans="1:9">
       <c r="A194" s="5">
         <v>43525</v>
       </c>
@@ -17974,7 +17973,7 @@
         <v>2.401720430107527</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="14.4">
+    <row r="195" spans="1:9">
       <c r="A195" s="5">
         <v>43556</v>
       </c>
@@ -18011,7 +18010,7 @@
         <v>2.4096093189964156</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="14.4">
+    <row r="196" spans="1:9">
       <c r="A196" s="5">
         <v>43586</v>
       </c>
@@ -18048,7 +18047,7 @@
         <v>2.4065985663082436</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="14.4">
+    <row r="197" spans="1:9">
       <c r="A197" s="5">
         <v>43617</v>
       </c>
@@ -18085,7 +18084,7 @@
         <v>2.3974336917562726</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="14.4">
+    <row r="198" spans="1:9">
       <c r="A198" s="5">
         <v>43647</v>
       </c>
@@ -18122,7 +18121,7 @@
         <v>2.3905125448028675</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="14.4">
+    <row r="199" spans="1:9">
       <c r="A199" s="5">
         <v>43678</v>
       </c>
@@ -18159,7 +18158,7 @@
         <v>2.3021254480286739</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="14.4">
+    <row r="200" spans="1:9">
       <c r="A200" s="5">
         <v>43709</v>
       </c>
@@ -18196,7 +18195,7 @@
         <v>2.1905698924731185</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="14.4">
+    <row r="201" spans="1:9">
       <c r="A201" s="5">
         <v>43739</v>
       </c>
@@ -18233,7 +18232,7 @@
         <v>1.9994946236559141</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="14.4">
+    <row r="202" spans="1:9">
       <c r="A202" s="5">
         <v>43770</v>
       </c>
@@ -18270,7 +18269,7 @@
         <v>1.8086702508960573</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="14.4">
+    <row r="203" spans="1:9">
       <c r="A203" s="5">
         <v>43800</v>
       </c>
@@ -18307,7 +18306,7 @@
         <v>1.6446594982078853</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="14.4">
+    <row r="204" spans="1:9">
       <c r="A204" s="5">
         <v>43831</v>
       </c>
@@ -18344,7 +18343,7 @@
         <v>1.5507090540751129</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="14.4">
+    <row r="205" spans="1:9">
       <c r="A205" s="5">
         <v>43862</v>
       </c>
@@ -18381,7 +18380,7 @@
         <v>1.5614312762973352</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="14.4">
+    <row r="206" spans="1:9">
       <c r="A206" s="5">
         <v>43891</v>
       </c>
@@ -18418,7 +18417,7 @@
         <v>1.2476238471673256</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="14.4">
+    <row r="207" spans="1:9">
       <c r="A207" s="5">
         <v>43922</v>
       </c>
@@ -18455,7 +18454,7 @@
         <v>0.73804545454545467</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="14.4">
+    <row r="208" spans="1:9">
       <c r="A208" s="5">
         <v>43952</v>
       </c>
@@ -18492,7 +18491,7 @@
         <v>0.22462481962481959</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="14.4">
+    <row r="209" spans="1:9">
       <c r="A209" s="5">
         <v>43983</v>
       </c>
@@ -18529,7 +18528,7 @@
         <v>4.7806637806637818E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="14.4">
+    <row r="210" spans="1:9">
       <c r="A210" s="5">
         <v>44013</v>
       </c>
@@ -18566,7 +18565,7 @@
         <v>7.6660392747349301E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="14.4">
+    <row r="211" spans="1:9">
       <c r="A211" s="5">
         <v>44044</v>
       </c>
@@ -18603,7 +18602,7 @@
         <v>9.0152456239412773E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="14.4">
+    <row r="212" spans="1:9">
       <c r="A212" s="5">
         <v>44075</v>
       </c>
@@ -18640,7 +18639,7 @@
         <v>9.2425183512140061E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="14.4">
+    <row r="213" spans="1:9">
       <c r="A213" s="5">
         <v>44105</v>
       </c>
@@ -18677,7 +18676,7 @@
         <v>8.6298701298701319E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="14.4">
+    <row r="214" spans="1:9">
       <c r="A214" s="5">
         <v>44136</v>
       </c>
@@ -18714,7 +18713,7 @@
         <v>8.6616161616161633E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="14.4">
+    <row r="215" spans="1:9">
       <c r="A215" s="5">
         <v>44166</v>
       </c>
@@ -18751,7 +18750,7 @@
         <v>8.5371102327624085E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="14.4">
+    <row r="216" spans="1:9">
       <c r="A216" s="5">
         <v>44197</v>
       </c>
@@ -18788,7 +18787,7 @@
         <v>8.0089717046238809E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="14.4">
+    <row r="217" spans="1:9">
       <c r="A217" s="5">
         <v>44228</v>
       </c>
@@ -18825,7 +18824,7 @@
         <v>6.5200828157349913E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="14.4">
+    <row r="218" spans="1:9">
       <c r="A218" s="5">
         <v>44256</v>
       </c>
@@ -18862,7 +18861,7 @@
         <v>4.2881987577639759E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="14.4">
+    <row r="219" spans="1:9">
       <c r="A219" s="5">
         <v>44287</v>
       </c>
@@ -18899,7 +18898,7 @@
         <v>2.2405797101449281E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="14.4">
+    <row r="220" spans="1:9">
       <c r="A220" s="5">
         <v>44317</v>
       </c>
@@ -18936,7 +18935,7 @@
         <v>1.1739130434782611E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="14.4">
+    <row r="221" spans="1:9">
       <c r="A221" s="5">
         <v>44348</v>
       </c>
@@ -18973,7 +18972,7 @@
         <v>1.6060606060606063E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="14.4">
+    <row r="222" spans="1:9">
       <c r="A222" s="5">
         <v>44378</v>
       </c>
@@ -19010,7 +19009,7 @@
         <v>2.9393939393939399E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="14.4">
+    <row r="223" spans="1:9">
       <c r="A223" s="5">
         <v>44409</v>
       </c>
@@ -19047,7 +19046,7 @@
         <v>4.2727272727272746E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="14.4">
+    <row r="224" spans="1:9">
       <c r="A224" s="5">
         <v>44440</v>
       </c>
@@ -19084,7 +19083,7 @@
         <v>5.0000000000000017E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="14.4">
+    <row r="225" spans="1:9">
       <c r="A225" s="5">
         <v>44470</v>
       </c>
@@ -19121,7 +19120,7 @@
         <v>4.8888888888888905E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="14.4">
+    <row r="226" spans="1:9">
       <c r="A226" s="5">
         <v>44501</v>
       </c>
@@ -19158,7 +19157,7 @@
         <v>4.8888888888888905E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="14.4">
+    <row r="227" spans="1:9">
       <c r="A227" s="5">
         <v>44531</v>
       </c>
@@ -19195,7 +19194,7 @@
         <v>4.8743961352657024E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="14.4">
+    <row r="228" spans="1:9">
       <c r="A228" s="5">
         <v>44562</v>
       </c>
@@ -19232,7 +19231,7 @@
         <v>4.9220151828847501E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="14.4">
+    <row r="229" spans="1:9">
       <c r="A229" s="5">
         <v>44593</v>
       </c>
@@ -19269,7 +19268,7 @@
         <v>4.9053485162180832E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="14.4">
+    <row r="230" spans="1:9">
       <c r="A230" s="5">
         <v>44621</v>
       </c>
@@ -19306,7 +19305,7 @@
         <v>8.6299861973775038E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="14.4">
+    <row r="231" spans="1:9">
       <c r="A231" s="5">
         <v>44652</v>
       </c>
@@ -19343,7 +19342,7 @@
         <v>0.16566494133885437</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="14.4">
+    <row r="232" spans="1:9">
       <c r="A232" s="5">
         <v>44682</v>
       </c>
@@ -19380,7 +19379,7 @@
         <v>0.38886191103582401</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="14.4">
+    <row r="233" spans="1:9">
       <c r="A233" s="5">
         <v>44713</v>
       </c>
@@ -19417,7 +19416,7 @@
         <v>0.70600288600288597</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="14.4">
+    <row r="234" spans="1:9">
       <c r="A234" s="5">
         <v>44743</v>
       </c>
@@ -19454,7 +19453,7 @@
         <v>1.1448917748917748</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="14.4">
+    <row r="235" spans="1:9">
       <c r="A235" s="5">
         <v>44774</v>
       </c>
@@ -19491,7 +19490,7 @@
         <v>1.6663542254846604</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="14.4">
+    <row r="236" spans="1:9">
       <c r="A236" s="5">
         <v>44805</v>
       </c>
@@ -19528,7 +19527,7 @@
         <v>2.1292330133634483</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="14.4">
+    <row r="237" spans="1:9">
       <c r="A237" s="5">
         <v>44835</v>
       </c>
@@ -19565,7 +19564,7 @@
         <v>2.6073282514586862</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="14.4">
+    <row r="238" spans="1:9">
       <c r="A238" s="5">
         <v>44866</v>
       </c>
@@ -19602,7 +19601,7 @@
         <v>3.0887445887445879</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="14.4">
+    <row r="239" spans="1:9">
       <c r="A239" s="5">
         <v>44896</v>
       </c>
@@ -19645,17 +19644,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B57FF8-9773-4814-B344-3319823F4537}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M203"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="4" t="s">
@@ -23512,124 +23511,428 @@
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="5"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
+      <c r="A74" s="5">
+        <v>44256</v>
+      </c>
+      <c r="B74" s="13">
+        <f>IFERROR(VLOOKUP($A74,Trimestral_Transformada!$A$1:$Z$300,2,0),"")</f>
+        <v>499.63451026629519</v>
+      </c>
+      <c r="C74" s="13">
+        <f>IFERROR(VLOOKUP($A74,Mensual_Transformada!$A$1:$Z$300,7,0),"")</f>
+        <v>488.1201875225342</v>
+      </c>
+      <c r="D74" s="13">
+        <f>IFERROR(VLOOKUP($A74,Mensual_Transformada!$A$1:$Z$300,9,0),"")</f>
+        <v>4.2881987577639759E-2</v>
+      </c>
+      <c r="E74" s="13">
+        <f>IFERROR(VLOOKUP($A74,Mensual_Transformada!$A$1:$Z$300,4,0),"")</f>
+        <v>475.08302199706219</v>
+      </c>
+      <c r="F74" s="13">
+        <f>IFERROR(VLOOKUP($A74,Trimestral_Transformada!$A$1:$Z$300,3,0),"")</f>
+        <v>-2.8202484318093801</v>
+      </c>
+      <c r="G74" s="13">
+        <f>IFERROR(VLOOKUP($A74,Mensual_Transformada!$A$1:$Z$300,3,0),"")</f>
+        <v>607.70929970513907</v>
+      </c>
+      <c r="H74" s="13">
+        <f>IFERROR(VLOOKUP($A74,Mensual_Transformada!$A$1:$Z$300,2,0),"")</f>
+        <v>623.81436006822287</v>
+      </c>
+      <c r="I74" s="13">
+        <f>IFERROR(VLOOKUP($A74,Trimestral_Transformada!$A$1:$E$100,4,0),"")</f>
+        <v>1138.0354</v>
+      </c>
+      <c r="J74" s="13">
+        <f>IFERROR(VLOOKUP($A74,Trimestral_Transformada!$A$1:$E$100,5,0),"")</f>
+        <v>1048.7982999999999</v>
+      </c>
+      <c r="K74" s="13">
+        <f>IFERROR(VLOOKUP($A74,Mensual_Transformada!$A$1:$Z$300,6,0),"")</f>
+        <v>455.31067705863239</v>
+      </c>
+      <c r="L74" s="13">
+        <f>IFERROR(VLOOKUP($A74,Mensual_Transformada!$A$1:$Z$300,8,0),"")</f>
+        <v>0.21479999999999999</v>
+      </c>
+      <c r="M74" s="13">
+        <f>IFERROR(VLOOKUP($A74,Mensual_Transformada!$A$1:$Z$300,5,0),"")</f>
+        <v>467.38441224536803</v>
+      </c>
     </row>
     <row r="75" spans="1:13">
-      <c r="A75" s="5"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
+      <c r="A75" s="5">
+        <v>44348</v>
+      </c>
+      <c r="B75" s="13">
+        <f>IFERROR(VLOOKUP($A75,Trimestral_Transformada!$A$1:$Z$300,2,0),"")</f>
+        <v>501.58483445545619</v>
+      </c>
+      <c r="C75" s="13">
+        <f>IFERROR(VLOOKUP($A75,Mensual_Transformada!$A$1:$Z$300,7,0),"")</f>
+        <v>489.0117114172395</v>
+      </c>
+      <c r="D75" s="13">
+        <f>IFERROR(VLOOKUP($A75,Mensual_Transformada!$A$1:$Z$300,9,0),"")</f>
+        <v>1.6060606060606063E-2</v>
+      </c>
+      <c r="E75" s="13">
+        <f>IFERROR(VLOOKUP($A75,Mensual_Transformada!$A$1:$Z$300,4,0),"")</f>
+        <v>475.39356002231375</v>
+      </c>
+      <c r="F75" s="13">
+        <f>IFERROR(VLOOKUP($A75,Trimestral_Transformada!$A$1:$Z$300,3,0),"")</f>
+        <v>-3.1331346297059901</v>
+      </c>
+      <c r="G75" s="13">
+        <f>IFERROR(VLOOKUP($A75,Mensual_Transformada!$A$1:$Z$300,3,0),"")</f>
+        <v>605.89176608811999</v>
+      </c>
+      <c r="H75" s="13">
+        <f>IFERROR(VLOOKUP($A75,Mensual_Transformada!$A$1:$Z$300,2,0),"")</f>
+        <v>624.16269877525281</v>
+      </c>
+      <c r="I75" s="13">
+        <f>IFERROR(VLOOKUP($A75,Trimestral_Transformada!$A$1:$E$100,4,0),"")</f>
+        <v>1139.8284000000001</v>
+      </c>
+      <c r="J75" s="13">
+        <f>IFERROR(VLOOKUP($A75,Trimestral_Transformada!$A$1:$E$100,5,0),"")</f>
+        <v>1046.8904</v>
+      </c>
+      <c r="K75" s="13">
+        <f>IFERROR(VLOOKUP($A75,Mensual_Transformada!$A$1:$Z$300,6,0),"")</f>
+        <v>455.97341299100327</v>
+      </c>
+      <c r="L75" s="13">
+        <f>IFERROR(VLOOKUP($A75,Mensual_Transformada!$A$1:$Z$300,8,0),"")</f>
+        <v>0.24966666666666668</v>
+      </c>
+      <c r="M75" s="13">
+        <f>IFERROR(VLOOKUP($A75,Mensual_Transformada!$A$1:$Z$300,5,0),"")</f>
+        <v>471.25755128952528</v>
+      </c>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="5"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
+      <c r="A76" s="5">
+        <v>44440</v>
+      </c>
+      <c r="B76" s="13">
+        <f>IFERROR(VLOOKUP($A76,Trimestral_Transformada!$A$1:$Z$300,2,0),"")</f>
+        <v>501.96292688127403</v>
+      </c>
+      <c r="C76" s="13">
+        <f>IFERROR(VLOOKUP($A76,Mensual_Transformada!$A$1:$Z$300,7,0),"")</f>
+        <v>490.04560636075342</v>
+      </c>
+      <c r="D76" s="13">
+        <f>IFERROR(VLOOKUP($A76,Mensual_Transformada!$A$1:$Z$300,9,0),"")</f>
+        <v>5.0000000000000017E-2</v>
+      </c>
+      <c r="E76" s="13">
+        <f>IFERROR(VLOOKUP($A76,Mensual_Transformada!$A$1:$Z$300,4,0),"")</f>
+        <v>474.04285945136229</v>
+      </c>
+      <c r="F76" s="13">
+        <f>IFERROR(VLOOKUP($A76,Trimestral_Transformada!$A$1:$Z$300,3,0),"")</f>
+        <v>-1.73031665174597</v>
+      </c>
+      <c r="G76" s="13">
+        <f>IFERROR(VLOOKUP($A76,Mensual_Transformada!$A$1:$Z$300,3,0),"")</f>
+        <v>608.02574488258529</v>
+      </c>
+      <c r="H76" s="13">
+        <f>IFERROR(VLOOKUP($A76,Mensual_Transformada!$A$1:$Z$300,2,0),"")</f>
+        <v>625.7020003442891</v>
+      </c>
+      <c r="I76" s="13">
+        <f>IFERROR(VLOOKUP($A76,Trimestral_Transformada!$A$1:$E$100,4,0),"")</f>
+        <v>1141.2934</v>
+      </c>
+      <c r="J76" s="13">
+        <f>IFERROR(VLOOKUP($A76,Trimestral_Transformada!$A$1:$E$100,5,0),"")</f>
+        <v>1047.2113999999999</v>
+      </c>
+      <c r="K76" s="13">
+        <f>IFERROR(VLOOKUP($A76,Mensual_Transformada!$A$1:$Z$300,6,0),"")</f>
+        <v>458.0542076394841</v>
+      </c>
+      <c r="L76" s="13">
+        <f>IFERROR(VLOOKUP($A76,Mensual_Transformada!$A$1:$Z$300,8,0),"")</f>
+        <v>0.50413333333333332</v>
+      </c>
+      <c r="M76" s="13">
+        <f>IFERROR(VLOOKUP($A76,Mensual_Transformada!$A$1:$Z$300,5,0),"")</f>
+        <v>475.41022904396152</v>
+      </c>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="5"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
+      <c r="A77" s="5">
+        <v>44531</v>
+      </c>
+      <c r="B77" s="13">
+        <f>IFERROR(VLOOKUP($A77,Trimestral_Transformada!$A$1:$Z$300,2,0),"")</f>
+        <v>503.45706603303137</v>
+      </c>
+      <c r="C77" s="13">
+        <f>IFERROR(VLOOKUP($A77,Mensual_Transformada!$A$1:$Z$300,7,0),"")</f>
+        <v>491.42918785593952</v>
+      </c>
+      <c r="D77" s="13">
+        <f>IFERROR(VLOOKUP($A77,Mensual_Transformada!$A$1:$Z$300,9,0),"")</f>
+        <v>4.8743961352657024E-2</v>
+      </c>
+      <c r="E77" s="13">
+        <f>IFERROR(VLOOKUP($A77,Mensual_Transformada!$A$1:$Z$300,4,0),"")</f>
+        <v>476.16767799130793</v>
+      </c>
+      <c r="F77" s="13">
+        <f>IFERROR(VLOOKUP($A77,Trimestral_Transformada!$A$1:$Z$300,3,0),"")</f>
+        <v>-0.70219427959288405</v>
+      </c>
+      <c r="G77" s="13">
+        <f>IFERROR(VLOOKUP($A77,Mensual_Transformada!$A$1:$Z$300,3,0),"")</f>
+        <v>607.22910371994237</v>
+      </c>
+      <c r="H77" s="13">
+        <f>IFERROR(VLOOKUP($A77,Mensual_Transformada!$A$1:$Z$300,2,0),"")</f>
+        <v>626.07958135229569</v>
+      </c>
+      <c r="I77" s="13">
+        <f>IFERROR(VLOOKUP($A77,Trimestral_Transformada!$A$1:$E$100,4,0),"")</f>
+        <v>1142.1557</v>
+      </c>
+      <c r="J77" s="13">
+        <f>IFERROR(VLOOKUP($A77,Trimestral_Transformada!$A$1:$E$100,5,0),"")</f>
+        <v>1045.9003</v>
+      </c>
+      <c r="K77" s="13">
+        <f>IFERROR(VLOOKUP($A77,Mensual_Transformada!$A$1:$Z$300,6,0),"")</f>
+        <v>459.94167503336712</v>
+      </c>
+      <c r="L77" s="13">
+        <f>IFERROR(VLOOKUP($A77,Mensual_Transformada!$A$1:$Z$300,8,0),"")</f>
+        <v>1.7538666666666665</v>
+      </c>
+      <c r="M77" s="13">
+        <f>IFERROR(VLOOKUP($A77,Mensual_Transformada!$A$1:$Z$300,5,0),"")</f>
+        <v>473.84160906749077</v>
+      </c>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="5"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
+      <c r="A78" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B78" s="13">
+        <f>IFERROR(VLOOKUP($A78,Trimestral_Transformada!$A$1:$Z$300,2,0),"")</f>
+        <v>503.97256631787064</v>
+      </c>
+      <c r="C78" s="13">
+        <f>IFERROR(VLOOKUP($A78,Mensual_Transformada!$A$1:$Z$300,7,0),"")</f>
+        <v>492.85110658073529</v>
+      </c>
+      <c r="D78" s="13">
+        <f>IFERROR(VLOOKUP($A78,Mensual_Transformada!$A$1:$Z$300,9,0),"")</f>
+        <v>8.6299861973775038E-2</v>
+      </c>
+      <c r="E78" s="13">
+        <f>IFERROR(VLOOKUP($A78,Mensual_Transformada!$A$1:$Z$300,4,0),"")</f>
+        <v>471.92056772084311</v>
+      </c>
+      <c r="F78" s="13">
+        <f>IFERROR(VLOOKUP($A78,Trimestral_Transformada!$A$1:$Z$300,3,0),"")</f>
+        <v>-6.5674730389664999</v>
+      </c>
+      <c r="G78" s="13">
+        <f>IFERROR(VLOOKUP($A78,Mensual_Transformada!$A$1:$Z$300,3,0),"")</f>
+        <v>607.50089963328526</v>
+      </c>
+      <c r="H78" s="13">
+        <f>IFERROR(VLOOKUP($A78,Mensual_Transformada!$A$1:$Z$300,2,0),"")</f>
+        <v>627.24267591222826</v>
+      </c>
+      <c r="I78" s="13">
+        <f>IFERROR(VLOOKUP($A78,Trimestral_Transformada!$A$1:$E$100,4,0),"")</f>
+        <v>1142.8604</v>
+      </c>
+      <c r="J78" s="13">
+        <f>IFERROR(VLOOKUP($A78,Trimestral_Transformada!$A$1:$E$100,5,0),"")</f>
+        <v>1047.3162</v>
+      </c>
+      <c r="K78" s="13">
+        <f>IFERROR(VLOOKUP($A78,Mensual_Transformada!$A$1:$Z$300,6,0),"")</f>
+        <v>461.35638521345766</v>
+      </c>
+      <c r="L78" s="13">
+        <f>IFERROR(VLOOKUP($A78,Mensual_Transformada!$A$1:$Z$300,8,0),"")</f>
+        <v>3.4051333333333336</v>
+      </c>
+      <c r="M78" s="13">
+        <f>IFERROR(VLOOKUP($A78,Mensual_Transformada!$A$1:$Z$300,5,0),"")</f>
+        <v>468.75143630532949</v>
+      </c>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="5"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="13"/>
-      <c r="L79" s="13"/>
-      <c r="M79" s="13"/>
+      <c r="A79" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B79" s="13">
+        <f>IFERROR(VLOOKUP($A79,Trimestral_Transformada!$A$1:$Z$300,2,0),"")</f>
+        <v>504.61467316220211</v>
+      </c>
+      <c r="C79" s="13">
+        <f>IFERROR(VLOOKUP($A79,Mensual_Transformada!$A$1:$Z$300,7,0),"")</f>
+        <v>494.34936599593789</v>
+      </c>
+      <c r="D79" s="13">
+        <f>IFERROR(VLOOKUP($A79,Mensual_Transformada!$A$1:$Z$300,9,0),"")</f>
+        <v>0.70600288600288597</v>
+      </c>
+      <c r="E79" s="13">
+        <f>IFERROR(VLOOKUP($A79,Mensual_Transformada!$A$1:$Z$300,4,0),"")</f>
+        <v>462.97345911573257</v>
+      </c>
+      <c r="F79" s="13">
+        <f>IFERROR(VLOOKUP($A79,Trimestral_Transformada!$A$1:$Z$300,3,0),"")</f>
+        <v>-4.2246948308755004</v>
+      </c>
+      <c r="G79" s="13">
+        <f>IFERROR(VLOOKUP($A79,Mensual_Transformada!$A$1:$Z$300,3,0),"")</f>
+        <v>606.04585678394096</v>
+      </c>
+      <c r="H79" s="13">
+        <f>IFERROR(VLOOKUP($A79,Mensual_Transformada!$A$1:$Z$300,2,0),"")</f>
+        <v>627.71091137179087</v>
+      </c>
+      <c r="I79" s="13">
+        <f>IFERROR(VLOOKUP($A79,Trimestral_Transformada!$A$1:$E$100,4,0),"")</f>
+        <v>1143.7277999999999</v>
+      </c>
+      <c r="J79" s="13">
+        <f>IFERROR(VLOOKUP($A79,Trimestral_Transformada!$A$1:$E$100,5,0),"")</f>
+        <v>1047.8004000000001</v>
+      </c>
+      <c r="K79" s="13">
+        <f>IFERROR(VLOOKUP($A79,Mensual_Transformada!$A$1:$Z$300,6,0),"")</f>
+        <v>463.94146342216953</v>
+      </c>
+      <c r="L79" s="13">
+        <f>IFERROR(VLOOKUP($A79,Mensual_Transformada!$A$1:$Z$300,8,0),"")</f>
+        <v>4.8749000000000002</v>
+      </c>
+      <c r="M79" s="13">
+        <f>IFERROR(VLOOKUP($A79,Mensual_Transformada!$A$1:$Z$300,5,0),"")</f>
+        <v>463.76680160496863</v>
+      </c>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="5"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="13"/>
-      <c r="K80" s="13"/>
-      <c r="L80" s="13"/>
-      <c r="M80" s="13"/>
+      <c r="A80" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B80" s="13">
+        <f>IFERROR(VLOOKUP($A80,Trimestral_Transformada!$A$1:$Z$300,2,0),"")</f>
+        <v>505.57321592256557</v>
+      </c>
+      <c r="C80" s="13">
+        <f>IFERROR(VLOOKUP($A80,Mensual_Transformada!$A$1:$Z$300,7,0),"")</f>
+        <v>495.49897877850981</v>
+      </c>
+      <c r="D80" s="13">
+        <f>IFERROR(VLOOKUP($A80,Mensual_Transformada!$A$1:$Z$300,9,0),"")</f>
+        <v>2.1292330133634483</v>
+      </c>
+      <c r="E80" s="13">
+        <f>IFERROR(VLOOKUP($A80,Mensual_Transformada!$A$1:$Z$300,4,0),"")</f>
+        <v>460.57283923081229</v>
+      </c>
+      <c r="F80" s="13">
+        <f>IFERROR(VLOOKUP($A80,Trimestral_Transformada!$A$1:$Z$300,3,0),"")</f>
+        <v>-4.8200646385476098</v>
+      </c>
+      <c r="G80" s="13">
+        <f>IFERROR(VLOOKUP($A80,Mensual_Transformada!$A$1:$Z$300,3,0),"")</f>
+        <v>607.80935757018415</v>
+      </c>
+      <c r="H80" s="13">
+        <f>IFERROR(VLOOKUP($A80,Mensual_Transformada!$A$1:$Z$300,2,0),"")</f>
+        <v>627.79463643944121</v>
+      </c>
+      <c r="I80" s="13">
+        <f>IFERROR(VLOOKUP($A80,Trimestral_Transformada!$A$1:$E$100,4,0),"")</f>
+        <v>1144.0227</v>
+      </c>
+      <c r="J80" s="13">
+        <f>IFERROR(VLOOKUP($A80,Trimestral_Transformada!$A$1:$E$100,5,0),"")</f>
+        <v>1047.9694999999999</v>
+      </c>
+      <c r="K80" s="13">
+        <f>IFERROR(VLOOKUP($A80,Mensual_Transformada!$A$1:$Z$300,6,0),"")</f>
+        <v>466.25575768764145</v>
+      </c>
+      <c r="L80" s="13">
+        <f>IFERROR(VLOOKUP($A80,Mensual_Transformada!$A$1:$Z$300,8,0),"")</f>
+        <v>6.2822333333333331</v>
+      </c>
+      <c r="M80" s="13">
+        <f>IFERROR(VLOOKUP($A80,Mensual_Transformada!$A$1:$Z$300,5,0),"")</f>
+        <v>462.55719498458205</v>
+      </c>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="5"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="13"/>
-      <c r="L81" s="13"/>
-      <c r="M81" s="13"/>
+      <c r="A81" s="5">
+        <v>44896</v>
+      </c>
+      <c r="B81" s="13">
+        <f>IFERROR(VLOOKUP($A81,Trimestral_Transformada!$A$1:$Z$300,2,0),"")</f>
+        <v>505.89783573860814</v>
+      </c>
+      <c r="C81" s="13">
+        <f>IFERROR(VLOOKUP($A81,Mensual_Transformada!$A$1:$Z$300,7,0),"")</f>
+        <v>496.37485624569024</v>
+      </c>
+      <c r="D81" s="13">
+        <f>IFERROR(VLOOKUP($A81,Mensual_Transformada!$A$1:$Z$300,9,0),"")</f>
+        <v>3.6137445887445878</v>
+      </c>
+      <c r="E81" s="13">
+        <f>IFERROR(VLOOKUP($A81,Mensual_Transformada!$A$1:$Z$300,4,0),"")</f>
+        <v>462.96115786703274</v>
+      </c>
+      <c r="F81" s="13">
+        <f>IFERROR(VLOOKUP($A81,Trimestral_Transformada!$A$1:$Z$300,3,0),"")</f>
+        <v>-0.74878947425318398</v>
+      </c>
+      <c r="G81" s="13">
+        <f>IFERROR(VLOOKUP($A81,Mensual_Transformada!$A$1:$Z$300,3,0),"")</f>
+        <v>610.93893038783631</v>
+      </c>
+      <c r="H81" s="13">
+        <f>IFERROR(VLOOKUP($A81,Mensual_Transformada!$A$1:$Z$300,2,0),"")</f>
+        <v>628.25962423366173</v>
+      </c>
+      <c r="I81" s="13">
+        <f>IFERROR(VLOOKUP($A81,Trimestral_Transformada!$A$1:$E$100,4,0),"")</f>
+        <v>1144.396</v>
+      </c>
+      <c r="J81" s="13">
+        <f>IFERROR(VLOOKUP($A81,Trimestral_Transformada!$A$1:$E$100,5,0),"")</f>
+        <v>1047.6415</v>
+      </c>
+      <c r="K81" s="13">
+        <f>IFERROR(VLOOKUP($A81,Mensual_Transformada!$A$1:$Z$300,6,0),"")</f>
+        <v>467.99813104950914</v>
+      </c>
+      <c r="L81" s="13">
+        <f>IFERROR(VLOOKUP($A81,Mensual_Transformada!$A$1:$Z$300,8,0),"")</f>
+        <v>7.2093333333333334</v>
+      </c>
+      <c r="M81" s="13">
+        <f>IFERROR(VLOOKUP($A81,Mensual_Transformada!$A$1:$Z$300,5,0),"")</f>
+        <v>459.92269213606846</v>
+      </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="5"/>
@@ -25468,6 +25771,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e317b0e9-28fd-415b-9d0c-f3a0f6f6407d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3af99e43-9d1b-47f0-a012-42c2c9480d00" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A95F695341A2644683A40A4AE0B8881B" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="7e2131995a243c87950f34ace40f824b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e317b0e9-28fd-415b-9d0c-f3a0f6f6407d" xmlns:ns3="3af99e43-9d1b-47f0-a012-42c2c9480d00" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f83123875d1c33fca838d74f50e10f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="e317b0e9-28fd-415b-9d0c-f3a0f6f6407d"/>
@@ -25696,27 +26019,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e317b0e9-28fd-415b-9d0c-f3a0f6f6407d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3af99e43-9d1b-47f0-a012-42c2c9480d00" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{709D9446-ABE5-4AA1-B4E7-555F6EAA1FEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e317b0e9-28fd-415b-9d0c-f3a0f6f6407d"/>
+    <ds:schemaRef ds:uri="3af99e43-9d1b-47f0-a012-42c2c9480d00"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57FC0C16-12D2-4235-8800-5E1CF0270D59}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E50EAD6-334E-4D06-A546-C165E8B95C1B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25733,23 +26055,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{709D9446-ABE5-4AA1-B4E7-555F6EAA1FEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e317b0e9-28fd-415b-9d0c-f3a0f6f6407d"/>
-    <ds:schemaRef ds:uri="3af99e43-9d1b-47f0-a012-42c2c9480d00"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57FC0C16-12D2-4235-8800-5E1CF0270D59}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>